--- a/Liushui/output/output2.xlsx
+++ b/Liushui/output/output2.xlsx
@@ -453,9 +453,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>20190202</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -475,10 +473,8 @@
       <c r="M2" t="n">
         <v>327470.96</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>G9581500107951C</t>
-        </is>
+      <c r="N2" t="n">
+        <v>20190202</v>
       </c>
     </row>
     <row r="3">
@@ -501,9 +497,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>20190202</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -523,10 +517,8 @@
       <c r="M3" t="n">
         <v>327464.45</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>G9581500208365C</t>
-        </is>
+      <c r="N3" t="n">
+        <v>20190202</v>
       </c>
     </row>
     <row r="4">
@@ -549,9 +541,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>20190202</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -571,10 +561,8 @@
       <c r="M4" t="n">
         <v>327414.45</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>G9581500473249C</t>
-        </is>
+      <c r="N4" t="n">
+        <v>20190202</v>
       </c>
     </row>
     <row r="5">
@@ -597,9 +585,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>20190212</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -619,10 +605,8 @@
       <c r="M5" t="n">
         <v>280822.45</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>K0007500174529C</t>
-        </is>
+      <c r="N5" t="n">
+        <v>20190212</v>
       </c>
     </row>
     <row r="6">
@@ -645,9 +629,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>20190213</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -667,10 +649,8 @@
       <c r="M6" t="n">
         <v>265142.45</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>K1763100061616C</t>
-        </is>
+      <c r="N6" t="n">
+        <v>20190213</v>
       </c>
     </row>
     <row r="7">
@@ -693,9 +673,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>20190213</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -723,10 +701,8 @@
       <c r="M7" t="n">
         <v>240656.65</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>G1753100085523C</t>
-        </is>
+      <c r="N7" t="n">
+        <v>20190213</v>
       </c>
     </row>
     <row r="8">
@@ -749,9 +725,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>20190215</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -775,10 +749,8 @@
       <c r="M8" t="n">
         <v>237238.92</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>K8944700152269C</t>
-        </is>
+      <c r="N8" t="n">
+        <v>20190215</v>
       </c>
     </row>
     <row r="9">
@@ -801,9 +773,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>20190302</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -823,10 +793,8 @@
       <c r="M9" t="n">
         <v>237229.61</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>G8954300110589C</t>
-        </is>
+      <c r="N9" t="n">
+        <v>20190302</v>
       </c>
     </row>
     <row r="10">
@@ -849,9 +817,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>20190302</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -871,10 +837,8 @@
       <c r="M10" t="n">
         <v>237179.61</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>G8954300490060C</t>
-        </is>
+      <c r="N10" t="n">
+        <v>20190302</v>
       </c>
     </row>
     <row r="11">
@@ -897,9 +861,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -927,10 +889,8 @@
       <c r="M11" t="n">
         <v>224936.71</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>G9065700100371C</t>
-        </is>
+      <c r="N11" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="12">
@@ -953,9 +913,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -983,10 +941,8 @@
       <c r="M12" t="n">
         <v>211492.58</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>G9065700100373C</t>
-        </is>
+      <c r="N12" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="13">
@@ -1009,9 +965,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -1039,10 +993,8 @@
       <c r="M13" t="n">
         <v>198138.45</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>G9065700100375C</t>
-        </is>
+      <c r="N13" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="14">
@@ -1065,9 +1017,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -1095,10 +1045,8 @@
       <c r="M14" t="n">
         <v>181344.32</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>G9065700100377C</t>
-        </is>
+      <c r="N14" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="15">
@@ -1121,9 +1069,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -1151,10 +1097,8 @@
       <c r="M15" t="n">
         <v>170746.07</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>G9065700100379C</t>
-        </is>
+      <c r="N15" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="16">
@@ -1177,9 +1121,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -1207,10 +1149,8 @@
       <c r="M16" t="n">
         <v>147601.94</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>G9065700100383C</t>
-        </is>
+      <c r="N16" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="17">
@@ -1233,9 +1173,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -1263,10 +1201,8 @@
       <c r="M17" t="n">
         <v>116983.56</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>G9065700100385C</t>
-        </is>
+      <c r="N17" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="18">
@@ -1289,9 +1225,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>周强</t>
@@ -1319,10 +1253,8 @@
       <c r="M18" t="n">
         <v>83709.17999999999</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>G9065700100387C</t>
-        </is>
+      <c r="N18" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="19">
@@ -1345,9 +1277,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>20190311</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -1375,10 +1305,8 @@
       <c r="M19" t="n">
         <v>56565.76</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>G9065700100389C</t>
-        </is>
+      <c r="N19" t="n">
+        <v>20190311</v>
       </c>
     </row>
     <row r="20">
@@ -1401,9 +1329,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>20190312</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -1423,10 +1349,8 @@
       <c r="M20" t="n">
         <v>9973.76</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>K0445200040103C</t>
-        </is>
+      <c r="N20" t="n">
+        <v>20190312</v>
       </c>
     </row>
     <row r="21">
@@ -1449,9 +1373,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>20190312</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -1475,10 +1397,8 @@
       <c r="M21" t="n">
         <v>4421.31</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>K7856400149721C</t>
-        </is>
+      <c r="N21" t="n">
+        <v>20190312</v>
       </c>
     </row>
     <row r="22">
@@ -1501,9 +1421,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>20190314</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>北京公瑾科技有限公司</t>
@@ -1531,10 +1449,8 @@
       <c r="M22" t="n">
         <v>304421.31</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>C0090800021217C</t>
-        </is>
+      <c r="N22" t="n">
+        <v>20190314</v>
       </c>
     </row>
     <row r="23">
@@ -1557,9 +1473,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>20190314</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -1587,10 +1501,8 @@
       <c r="M23" t="n">
         <v>164421.31</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>G5172400011609C</t>
-        </is>
+      <c r="N23" t="n">
+        <v>20190314</v>
       </c>
     </row>
     <row r="24">
@@ -1613,9 +1525,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>20190314</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1635,10 +1545,8 @@
       <c r="M24" t="n">
         <v>148741.31</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>K5308500212504C</t>
-        </is>
+      <c r="N24" t="n">
+        <v>20190314</v>
       </c>
     </row>
     <row r="25">
@@ -1661,9 +1569,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>20190318</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>咸宁市九合盎然人工智能产业壹号投资合伙企业（有限合伙）</t>
@@ -1691,10 +1597,8 @@
       <c r="M25" t="n">
         <v>648741.3100000001</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>C0292300025664C</t>
-        </is>
+      <c r="N25" t="n">
+        <v>20190318</v>
       </c>
     </row>
     <row r="26">
@@ -1717,9 +1621,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>20190319</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司企业直通平台验证户</t>
@@ -1747,10 +1649,8 @@
       <c r="M26" t="n">
         <v>648740.3100000001</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>G0977100116896C</t>
-        </is>
+      <c r="N26" t="n">
+        <v>20190319</v>
       </c>
     </row>
     <row r="27">
@@ -1773,9 +1673,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>20190320</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司企业直通平台验证户</t>
@@ -1799,10 +1697,8 @@
       <c r="M27" t="n">
         <v>648741.3100000001</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>G3403600300545C</t>
-        </is>
+      <c r="N27" t="n">
+        <v>20190320</v>
       </c>
     </row>
     <row r="28">
@@ -1825,9 +1721,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1847,10 +1741,8 @@
       <c r="M28" t="n">
         <v>648862.21</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>G3555100003093C</t>
-        </is>
+      <c r="N28" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="29">
@@ -1873,9 +1765,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -1903,10 +1793,8 @@
       <c r="M29" t="n">
         <v>613472.01</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>G9055600108949C</t>
-        </is>
+      <c r="N29" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="30">
@@ -1929,9 +1817,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -1959,10 +1845,8 @@
       <c r="M30" t="n">
         <v>601904.21</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>G9055600108951C</t>
-        </is>
+      <c r="N30" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="31">
@@ -1985,9 +1869,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -2015,10 +1897,8 @@
       <c r="M31" t="n">
         <v>586219.6</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>G9055600108953C</t>
-        </is>
+      <c r="N31" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="32">
@@ -2041,9 +1921,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -2071,10 +1949,8 @@
       <c r="M32" t="n">
         <v>573671.3</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>G9055600108955C</t>
-        </is>
+      <c r="N32" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="33">
@@ -2097,9 +1973,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -2127,10 +2001,8 @@
       <c r="M33" t="n">
         <v>572926.5</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>G9055600108957C</t>
-        </is>
+      <c r="N33" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="34">
@@ -2153,9 +2025,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -2183,10 +2053,8 @@
       <c r="M34" t="n">
         <v>564734.5</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>G9055600108961C</t>
-        </is>
+      <c r="N34" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="35">
@@ -2209,9 +2077,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -2239,10 +2105,8 @@
       <c r="M35" t="n">
         <v>564190.9</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>G9055600108963C</t>
-        </is>
+      <c r="N35" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="36">
@@ -2265,9 +2129,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>周强</t>
@@ -2295,10 +2157,8 @@
       <c r="M36" t="n">
         <v>563297.1</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>G9055600108965C</t>
-        </is>
+      <c r="N36" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="37">
@@ -2321,9 +2181,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>20190321</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝购买户</t>
@@ -2351,10 +2209,8 @@
       <c r="M37" t="n">
         <v>63297.1</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>G9055600179613C</t>
-        </is>
+      <c r="N37" t="n">
+        <v>20190321</v>
       </c>
     </row>
     <row r="38">
@@ -2377,9 +2233,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>20190402</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2399,10 +2253,8 @@
       <c r="M38" t="n">
         <v>63217.95</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>G1430400163103C</t>
-        </is>
+      <c r="N38" t="n">
+        <v>20190402</v>
       </c>
     </row>
     <row r="39">
@@ -2425,9 +2277,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>20190402</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -2447,10 +2297,8 @@
       <c r="M39" t="n">
         <v>63206.79</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>G1430400163106C</t>
-        </is>
+      <c r="N39" t="n">
+        <v>20190402</v>
       </c>
     </row>
     <row r="40">
@@ -2473,9 +2321,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>20190402</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2495,10 +2341,8 @@
       <c r="M40" t="n">
         <v>63156.79</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>G1430400282237C</t>
-        </is>
+      <c r="N40" t="n">
+        <v>20190402</v>
       </c>
     </row>
     <row r="41">
@@ -2521,9 +2365,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>20190408</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -2547,10 +2389,8 @@
       <c r="M41" t="n">
         <v>353707.79</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>G9791500429212C</t>
-        </is>
+      <c r="N41" t="n">
+        <v>20190408</v>
       </c>
     </row>
     <row r="42">
@@ -2573,9 +2413,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>20190408</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2595,10 +2433,8 @@
       <c r="M42" t="n">
         <v>338027.79</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>K5813200262535C</t>
-        </is>
+      <c r="N42" t="n">
+        <v>20190408</v>
       </c>
     </row>
     <row r="43">
@@ -2621,9 +2457,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>20190408</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -2647,10 +2481,8 @@
       <c r="M43" t="n">
         <v>328435.71</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>K6149000082478C</t>
-        </is>
+      <c r="N43" t="n">
+        <v>20190408</v>
       </c>
     </row>
     <row r="44">
@@ -2673,9 +2505,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -2703,10 +2533,8 @@
       <c r="M44" t="n">
         <v>290906.3</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>G1403700048195C</t>
-        </is>
+      <c r="N44" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="45">
@@ -2729,9 +2557,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -2759,10 +2585,8 @@
       <c r="M45" t="n">
         <v>278663.4</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>G1403700048197C</t>
-        </is>
+      <c r="N45" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="46">
@@ -2785,9 +2609,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -2815,10 +2637,8 @@
       <c r="M46" t="n">
         <v>265219.28</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>G1403700048199C</t>
-        </is>
+      <c r="N46" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="47">
@@ -2841,9 +2661,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -2871,10 +2689,8 @@
       <c r="M47" t="n">
         <v>251865.16</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>G1403700048201C</t>
-        </is>
+      <c r="N47" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="48">
@@ -2897,9 +2713,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -2927,10 +2741,8 @@
       <c r="M48" t="n">
         <v>234358.09</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>G1403700048203C</t>
-        </is>
+      <c r="N48" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="49">
@@ -2953,9 +2765,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -2983,10 +2793,8 @@
       <c r="M49" t="n">
         <v>223759.84</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>G1403700048205C</t>
-        </is>
+      <c r="N49" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="50">
@@ -3009,9 +2817,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -3039,10 +2845,8 @@
       <c r="M50" t="n">
         <v>200448.24</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>G1403700048207C</t>
-        </is>
+      <c r="N50" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="51">
@@ -3065,9 +2869,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -3095,10 +2897,8 @@
       <c r="M51" t="n">
         <v>169770.89</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>G1403700048209C</t>
-        </is>
+      <c r="N51" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="52">
@@ -3121,9 +2921,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>周强</t>
@@ -3151,10 +2949,8 @@
       <c r="M52" t="n">
         <v>136213.54</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>G1403700048211C</t>
-        </is>
+      <c r="N52" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="53">
@@ -3177,9 +2973,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>20190410</v>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -3207,10 +3001,8 @@
       <c r="M53" t="n">
         <v>108134.08</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>G1403700048213C</t>
-        </is>
+      <c r="N53" t="n">
+        <v>20190410</v>
       </c>
     </row>
     <row r="54">
@@ -3233,9 +3025,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>20190411</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3255,10 +3045,8 @@
       <c r="M54" t="n">
         <v>61542.08</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>K7148700039712C</t>
-        </is>
+      <c r="N54" t="n">
+        <v>20190411</v>
       </c>
     </row>
     <row r="55">
@@ -3281,9 +3069,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>20190502</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3303,10 +3089,8 @@
       <c r="M55" t="n">
         <v>61492.08</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>G4449300265751C</t>
-        </is>
+      <c r="N55" t="n">
+        <v>20190502</v>
       </c>
     </row>
     <row r="56">
@@ -3329,9 +3113,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>20190502</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -3351,10 +3133,8 @@
       <c r="M56" t="n">
         <v>61454.84</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>G4449300722889C</t>
-        </is>
+      <c r="N56" t="n">
+        <v>20190502</v>
       </c>
     </row>
     <row r="57">
@@ -3377,9 +3157,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>20190502</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3399,10 +3177,8 @@
       <c r="M57" t="n">
         <v>61449.26</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>G4449300722892C</t>
-        </is>
+      <c r="N57" t="n">
+        <v>20190502</v>
       </c>
     </row>
     <row r="58">
@@ -3425,9 +3201,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>20190508</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -3451,10 +3225,8 @@
       <c r="M58" t="n">
         <v>272513.26</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>G8878900051720C</t>
-        </is>
+      <c r="N58" t="n">
+        <v>20190508</v>
       </c>
     </row>
     <row r="59">
@@ -3477,9 +3249,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>庞建蓉</t>
@@ -3507,10 +3277,8 @@
       <c r="M59" t="n">
         <v>472513.26</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>G5532400366274C</t>
-        </is>
+      <c r="N59" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="60">
@@ -3533,9 +3301,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3555,10 +3321,8 @@
       <c r="M60" t="n">
         <v>454523.26</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>K2867700050275C</t>
-        </is>
+      <c r="N60" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="61">
@@ -3581,9 +3345,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -3607,10 +3369,8 @@
       <c r="M61" t="n">
         <v>444494.67</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>K3013200129094C</t>
-        </is>
+      <c r="N61" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="62">
@@ -3633,9 +3393,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -3663,10 +3421,8 @@
       <c r="M62" t="n">
         <v>431050.54</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>G1579000086309C</t>
-        </is>
+      <c r="N62" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="63">
@@ -3689,9 +3445,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -3719,10 +3473,8 @@
       <c r="M63" t="n">
         <v>417696.41</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>G1579000086311C</t>
-        </is>
+      <c r="N63" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="64">
@@ -3745,9 +3497,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -3775,10 +3525,8 @@
       <c r="M64" t="n">
         <v>401405.23</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>G1579000086313C</t>
-        </is>
+      <c r="N64" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="65">
@@ -3801,9 +3549,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -3831,10 +3577,8 @@
       <c r="M65" t="n">
         <v>390806.98</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>G1579000086315C</t>
-        </is>
+      <c r="N65" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="66">
@@ -3857,9 +3601,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -3887,10 +3629,8 @@
       <c r="M66" t="n">
         <v>368755.73</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>G1579000086317C</t>
-        </is>
+      <c r="N66" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="67">
@@ -3913,9 +3653,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -3943,10 +3681,8 @@
       <c r="M67" t="n">
         <v>339004.48</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>G1579000086319C</t>
-        </is>
+      <c r="N67" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="68">
@@ -3969,9 +3705,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>周强</t>
@@ -3999,10 +3733,8 @@
       <c r="M68" t="n">
         <v>306373.23</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>G1579000086321C</t>
-        </is>
+      <c r="N68" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="69">
@@ -4025,9 +3757,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -4055,10 +3785,8 @@
       <c r="M69" t="n">
         <v>280432.17</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>G1579000086323C</t>
-        </is>
+      <c r="N69" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="70">
@@ -4081,9 +3809,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -4111,10 +3837,8 @@
       <c r="M70" t="n">
         <v>270010.36</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>G1579000086325C</t>
-        </is>
+      <c r="N70" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="71">
@@ -4137,9 +3861,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -4167,10 +3889,8 @@
       <c r="M71" t="n">
         <v>257767.46</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>G1579000086327C</t>
-        </is>
+      <c r="N71" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="72">
@@ -4193,9 +3913,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -4223,10 +3941,8 @@
       <c r="M72" t="n">
         <v>147434.13</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>G1579000086329C</t>
-        </is>
+      <c r="N72" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="73">
@@ -4249,9 +3965,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4279,10 +3993,8 @@
       <c r="M73" t="n">
         <v>134343.13</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>G1579000086335C</t>
-        </is>
+      <c r="N73" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="74">
@@ -4305,9 +4017,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -4335,10 +4045,8 @@
       <c r="M74" t="n">
         <v>94528.33</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>G1579000086337C</t>
-        </is>
+      <c r="N74" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="75">
@@ -4361,9 +4069,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -4391,10 +4097,8 @@
       <c r="M75" t="n">
         <v>73548.33</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>G1579000086341C</t>
-        </is>
+      <c r="N75" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="76">
@@ -4417,9 +4121,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -4447,10 +4149,8 @@
       <c r="M76" t="n">
         <v>70496.33</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>G1579000086343C</t>
-        </is>
+      <c r="N76" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="77">
@@ -4473,9 +4173,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -4503,10 +4201,8 @@
       <c r="M77" t="n">
         <v>67076.33</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>G1579000086345C</t>
-        </is>
+      <c r="N77" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="78">
@@ -4529,9 +4225,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>20190510</v>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -4559,10 +4253,8 @@
       <c r="M78" t="n">
         <v>64488.83</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>G1579000086353C</t>
-        </is>
+      <c r="N78" t="n">
+        <v>20190510</v>
       </c>
     </row>
     <row r="79">
@@ -4585,9 +4277,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>20190513</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4607,10 +4297,8 @@
       <c r="M79" t="n">
         <v>11032.83</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>K6224000420145C</t>
-        </is>
+      <c r="N79" t="n">
+        <v>20190513</v>
       </c>
     </row>
     <row r="80">
@@ -4633,9 +4321,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>20190520</v>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4663,10 +4349,8 @@
       <c r="M80" t="n">
         <v>7393.83</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>G4863200026390C</t>
-        </is>
+      <c r="N80" t="n">
+        <v>20190520</v>
       </c>
     </row>
     <row r="81">
@@ -4689,9 +4373,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>20190520</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -4719,10 +4401,8 @@
       <c r="M81" t="n">
         <v>6793.83</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>G4863200026392C</t>
-        </is>
+      <c r="N81" t="n">
+        <v>20190520</v>
       </c>
     </row>
     <row r="82">
@@ -4745,9 +4425,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>20190523</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4775,10 +4453,8 @@
       <c r="M82" t="n">
         <v>56793.83</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>G6057500071459C</t>
-        </is>
+      <c r="N82" t="n">
+        <v>20190523</v>
       </c>
     </row>
     <row r="83">
@@ -4801,9 +4477,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>20190523</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -4831,10 +4505,8 @@
       <c r="M83" t="n">
         <v>106793.83</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>G6057500079491C</t>
-        </is>
+      <c r="N83" t="n">
+        <v>20190523</v>
       </c>
     </row>
     <row r="84">
@@ -4857,9 +4529,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>20190523</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -4887,10 +4557,8 @@
       <c r="M84" t="n">
         <v>76793.83</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>G1373400038008C</t>
-        </is>
+      <c r="N84" t="n">
+        <v>20190523</v>
       </c>
     </row>
     <row r="85">
@@ -4913,9 +4581,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>20190523</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -4943,10 +4609,8 @@
       <c r="M85" t="n">
         <v>46793.83</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>G1373400038012C</t>
-        </is>
+      <c r="N85" t="n">
+        <v>20190523</v>
       </c>
     </row>
     <row r="86">
@@ -4969,9 +4633,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>20190524</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -4999,10 +4661,8 @@
       <c r="M86" t="n">
         <v>49793.83</v>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>KK788300008555C</t>
-        </is>
+      <c r="N86" t="n">
+        <v>20190524</v>
       </c>
     </row>
     <row r="87">
@@ -5025,9 +4685,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>20190524</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -5055,10 +4713,8 @@
       <c r="M87" t="n">
         <v>484.31</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>G0025800147991C</t>
-        </is>
+      <c r="N87" t="n">
+        <v>20190524</v>
       </c>
     </row>
     <row r="88">
@@ -5081,9 +4737,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>20190529</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>北京公瑾科技有限公司</t>
@@ -5111,10 +4765,8 @@
       <c r="M88" t="n">
         <v>1200484.31</v>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>C0057300032136C</t>
-        </is>
+      <c r="N88" t="n">
+        <v>20190529</v>
       </c>
     </row>
     <row r="89">
@@ -5137,9 +4789,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>20190529</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>上海善景企业管理咨询有限公司</t>
@@ -5167,10 +4817,8 @@
       <c r="M89" t="n">
         <v>1150484.31</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>G0712400100556C</t>
-        </is>
+      <c r="N89" t="n">
+        <v>20190529</v>
       </c>
     </row>
     <row r="90">
@@ -5193,9 +4841,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>20190529</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>庞建蓉</t>
@@ -5223,10 +4869,8 @@
       <c r="M90" t="n">
         <v>950484.3100000001</v>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>G0712400100558C</t>
-        </is>
+      <c r="N90" t="n">
+        <v>20190529</v>
       </c>
     </row>
     <row r="91">
@@ -5249,9 +4893,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>20190529</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -5279,10 +4921,8 @@
       <c r="M91" t="n">
         <v>850484.3100000001</v>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>G0712400100560C</t>
-        </is>
+      <c r="N91" t="n">
+        <v>20190529</v>
       </c>
     </row>
     <row r="92">
@@ -5305,9 +4945,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>20190529</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -5335,10 +4973,8 @@
       <c r="M92" t="n">
         <v>847484.3100000001</v>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>G0712400100562C</t>
-        </is>
+      <c r="N92" t="n">
+        <v>20190529</v>
       </c>
     </row>
     <row r="93">
@@ -5361,9 +4997,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>20190602</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -5383,10 +5017,8 @@
       <c r="M93" t="n">
         <v>847472.22</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>G9520700085151C</t>
-        </is>
+      <c r="N93" t="n">
+        <v>20190602</v>
       </c>
     </row>
     <row r="94">
@@ -5409,9 +5041,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>20190602</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -5431,10 +5061,8 @@
       <c r="M94" t="n">
         <v>847383.76</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>G9520700085154C</t>
-        </is>
+      <c r="N94" t="n">
+        <v>20190602</v>
       </c>
     </row>
     <row r="95">
@@ -5457,9 +5085,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>20190602</v>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -5479,10 +5105,8 @@
       <c r="M95" t="n">
         <v>847333.76</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>G9520700191523C</t>
-        </is>
+      <c r="N95" t="n">
+        <v>20190602</v>
       </c>
     </row>
     <row r="96">
@@ -5505,9 +5129,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>20190604</v>
-      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -5531,10 +5153,8 @@
       <c r="M96" t="n">
         <v>826790.17</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>K9404100091196C</t>
-        </is>
+      <c r="N96" t="n">
+        <v>20190604</v>
       </c>
     </row>
     <row r="97">
@@ -5557,9 +5177,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>20190605</v>
-      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5579,10 +5197,8 @@
       <c r="M97" t="n">
         <v>808800.17</v>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>K2380600054390C</t>
-        </is>
+      <c r="N97" t="n">
+        <v>20190605</v>
       </c>
     </row>
     <row r="98">
@@ -5605,9 +5221,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>20190606</v>
-      </c>
+      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -5635,10 +5249,8 @@
       <c r="M98" t="n">
         <v>797121.27</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>G3070400149157C</t>
-        </is>
+      <c r="N98" t="n">
+        <v>20190606</v>
       </c>
     </row>
     <row r="99">
@@ -5661,9 +5273,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -5691,10 +5301,8 @@
       <c r="M99" t="n">
         <v>740075.8199999999</v>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>G4706800260789C</t>
-        </is>
+      <c r="N99" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="100">
@@ -5717,9 +5325,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -5747,10 +5353,8 @@
       <c r="M100" t="n">
         <v>726631.7</v>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>G4706800260791C</t>
-        </is>
+      <c r="N100" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="101">
@@ -5773,9 +5377,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -5803,10 +5405,8 @@
       <c r="M101" t="n">
         <v>713771.95</v>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>G4706800260793C</t>
-        </is>
+      <c r="N101" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="102">
@@ -5829,9 +5429,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -5859,10 +5457,8 @@
       <c r="M102" t="n">
         <v>697720.7</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>G4706800260795C</t>
-        </is>
+      <c r="N102" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="103">
@@ -5885,9 +5481,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -5915,10 +5509,8 @@
       <c r="M103" t="n">
         <v>687122.45</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>G4706800260797C</t>
-        </is>
+      <c r="N103" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="104">
@@ -5941,9 +5533,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -5971,10 +5561,8 @@
       <c r="M104" t="n">
         <v>665071.2</v>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>G4706800260799C</t>
-        </is>
+      <c r="N104" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="105">
@@ -5997,9 +5585,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -6027,10 +5613,8 @@
       <c r="M105" t="n">
         <v>635319.95</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>G4706800260801C</t>
-        </is>
+      <c r="N105" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="106">
@@ -6053,9 +5637,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>周强</t>
@@ -6083,10 +5665,8 @@
       <c r="M106" t="n">
         <v>602688.7</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>G4706800260803C</t>
-        </is>
+      <c r="N106" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="107">
@@ -6109,9 +5689,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -6139,10 +5717,8 @@
       <c r="M107" t="n">
         <v>588364.5699999999</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>G4706800260805C</t>
-        </is>
+      <c r="N107" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="108">
@@ -6165,9 +5741,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -6195,10 +5769,8 @@
       <c r="M108" t="n">
         <v>540454.5699999999</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>G4706800260809C</t>
-        </is>
+      <c r="N108" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="109">
@@ -6221,9 +5793,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -6251,10 +5821,8 @@
       <c r="M109" t="n">
         <v>515234.57</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>G4706800260815C</t>
-        </is>
+      <c r="N109" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="110">
@@ -6277,9 +5845,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -6307,10 +5873,8 @@
       <c r="M110" t="n">
         <v>479024.57</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>G4706800260819C</t>
-        </is>
+      <c r="N110" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="111">
@@ -6333,9 +5897,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -6363,10 +5925,8 @@
       <c r="M111" t="n">
         <v>473667.62</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>G4706800260823C</t>
-        </is>
+      <c r="N111" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="112">
@@ -6389,9 +5949,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -6419,10 +5977,8 @@
       <c r="M112" t="n">
         <v>454126.67</v>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>G4706800260825C</t>
-        </is>
+      <c r="N112" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="113">
@@ -6445,9 +6001,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -6475,10 +6029,8 @@
       <c r="M113" t="n">
         <v>421617.67</v>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>G4706800260827C</t>
-        </is>
+      <c r="N113" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="114">
@@ -6501,9 +6053,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -6531,10 +6081,8 @@
       <c r="M114" t="n">
         <v>421074.21</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>G4706800260829C</t>
-        </is>
+      <c r="N114" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="115">
@@ -6557,9 +6105,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>20190610</v>
-      </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -6587,10 +6133,8 @@
       <c r="M115" t="n">
         <v>395133.15</v>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>G4706800260831C</t>
-        </is>
+      <c r="N115" t="n">
+        <v>20190610</v>
       </c>
     </row>
     <row r="116">
@@ -6613,9 +6157,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>20190611</v>
-      </c>
+      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -6635,10 +6177,8 @@
       <c r="M116" t="n">
         <v>346740.05</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>K1893800184195C</t>
-        </is>
+      <c r="N116" t="n">
+        <v>20190611</v>
       </c>
     </row>
     <row r="117">
@@ -6661,9 +6201,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>20190612</v>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>咸宁市九合盎然人工智能产业壹号投资合伙企业（有限合伙）</t>
@@ -6691,10 +6229,8 @@
       <c r="M117" t="n">
         <v>1846740.05</v>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>C0669700010171C</t>
-        </is>
+      <c r="N117" t="n">
+        <v>20190612</v>
       </c>
     </row>
     <row r="118">
@@ -6717,9 +6253,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>20190620</v>
-      </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝购买户</t>
@@ -6747,10 +6281,8 @@
       <c r="M118" t="n">
         <v>246740.05</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>G7510300125938C</t>
-        </is>
+      <c r="N118" t="n">
+        <v>20190620</v>
       </c>
     </row>
     <row r="119">
@@ -6773,9 +6305,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>20190621</v>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -6795,10 +6325,8 @@
       <c r="M119" t="n">
         <v>246991.06</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>G1715000006019C</t>
-        </is>
+      <c r="N119" t="n">
+        <v>20190621</v>
       </c>
     </row>
     <row r="120">
@@ -6821,9 +6349,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>20190625</v>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -6851,10 +6377,8 @@
       <c r="M120" t="n">
         <v>143747.06</v>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>G7666200095026C</t>
-        </is>
+      <c r="N120" t="n">
+        <v>20190625</v>
       </c>
     </row>
     <row r="121">
@@ -6877,9 +6401,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>20190627</v>
-      </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -6903,10 +6425,8 @@
       <c r="M121" t="n">
         <v>173767.48</v>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>G7632300156345C</t>
-        </is>
+      <c r="N121" t="n">
+        <v>20190627</v>
       </c>
     </row>
     <row r="122">
@@ -6929,9 +6449,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>20190628</v>
-      </c>
+      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -6959,10 +6477,8 @@
       <c r="M122" t="n">
         <v>85493.67</v>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>G4225800093005C</t>
-        </is>
+      <c r="N122" t="n">
+        <v>20190628</v>
       </c>
     </row>
     <row r="123">
@@ -6985,9 +6501,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>20190628</v>
-      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -7015,10 +6529,8 @@
       <c r="M123" t="n">
         <v>8993.67</v>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>G4225800093007C</t>
-        </is>
+      <c r="N123" t="n">
+        <v>20190628</v>
       </c>
     </row>
     <row r="124">
@@ -7041,9 +6553,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>20190702</v>
-      </c>
+      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -7063,10 +6573,8 @@
       <c r="M124" t="n">
         <v>8870.389999999999</v>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>G5493100128748C</t>
-        </is>
+      <c r="N124" t="n">
+        <v>20190702</v>
       </c>
     </row>
     <row r="125">
@@ -7089,9 +6597,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>20190702</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -7111,10 +6617,8 @@
       <c r="M125" t="n">
         <v>8861.09</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>G5493100155612C</t>
-        </is>
+      <c r="N125" t="n">
+        <v>20190702</v>
       </c>
     </row>
     <row r="126">
@@ -7137,9 +6641,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>20190702</v>
-      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -7159,10 +6661,8 @@
       <c r="M126" t="n">
         <v>8811.09</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>G5493100319934C</t>
-        </is>
+      <c r="N126" t="n">
+        <v>20190702</v>
       </c>
     </row>
     <row r="127">
@@ -7185,9 +6685,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>20190703</v>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -7211,10 +6709,8 @@
       <c r="M127" t="n">
         <v>8529.18</v>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>K4977300463131C</t>
-        </is>
+      <c r="N127" t="n">
+        <v>20190703</v>
       </c>
     </row>
     <row r="128">
@@ -7237,9 +6733,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>20190708</v>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>上海企盈致青春财务顾问有限公司</t>
@@ -7267,10 +6761,8 @@
       <c r="M128" t="n">
         <v>4929.18</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>G0412400224672C</t>
-        </is>
+      <c r="N128" t="n">
+        <v>20190708</v>
       </c>
     </row>
     <row r="129">
@@ -7293,9 +6785,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>20190708</v>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -7319,10 +6809,8 @@
       <c r="M129" t="n">
         <v>360550.43</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>G6433100139758C</t>
-        </is>
+      <c r="N129" t="n">
+        <v>20190708</v>
       </c>
     </row>
     <row r="130">
@@ -7345,9 +6833,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>20190708</v>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -7371,10 +6857,8 @@
       <c r="M130" t="n">
         <v>347045.24</v>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>K3619400071991C</t>
-        </is>
+      <c r="N130" t="n">
+        <v>20190708</v>
       </c>
     </row>
     <row r="131">
@@ -7397,9 +6881,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>20190708</v>
-      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -7419,10 +6901,8 @@
       <c r="M131" t="n">
         <v>329055.24</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>K3285800144558C</t>
-        </is>
+      <c r="N131" t="n">
+        <v>20190708</v>
       </c>
     </row>
     <row r="132">
@@ -7445,9 +6925,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -7475,10 +6953,8 @@
       <c r="M132" t="n">
         <v>315611.11</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>G0017500058686C</t>
-        </is>
+      <c r="N132" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="133">
@@ -7501,9 +6977,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -7531,10 +7005,8 @@
       <c r="M133" t="n">
         <v>304496.21</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>G0017500058688C</t>
-        </is>
+      <c r="N133" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="134">
@@ -7557,9 +7029,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -7587,10 +7057,8 @@
       <c r="M134" t="n">
         <v>291744.96</v>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>G0017500058690C</t>
-        </is>
+      <c r="N134" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="135">
@@ -7613,9 +7081,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -7643,10 +7109,8 @@
       <c r="M135" t="n">
         <v>275032.21</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>G0017500058692C</t>
-        </is>
+      <c r="N135" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="136">
@@ -7669,9 +7133,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F136" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -7699,10 +7161,8 @@
       <c r="M136" t="n">
         <v>264433.96</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>G0017500058694C</t>
-        </is>
+      <c r="N136" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="137">
@@ -7725,9 +7185,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -7755,10 +7213,8 @@
       <c r="M137" t="n">
         <v>241456.61</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>G0017500058696C</t>
-        </is>
+      <c r="N137" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="138">
@@ -7781,9 +7237,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -7811,10 +7265,8 @@
       <c r="M138" t="n">
         <v>210779.26</v>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>G0017500058698C</t>
-        </is>
+      <c r="N138" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="139">
@@ -7837,9 +7289,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F139" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
           <t>周强</t>
@@ -7867,10 +7317,8 @@
       <c r="M139" t="n">
         <v>179115.21</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>G0017500058700C</t>
-        </is>
+      <c r="N139" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="140">
@@ -7893,9 +7341,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -7923,10 +7369,8 @@
       <c r="M140" t="n">
         <v>164791.09</v>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>G0017500058702C</t>
-        </is>
+      <c r="N140" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="141">
@@ -7949,9 +7393,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -7979,10 +7421,8 @@
       <c r="M141" t="n">
         <v>136711.63</v>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>G0017500058704C</t>
-        </is>
+      <c r="N141" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="142">
@@ -8005,9 +7445,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -8035,10 +7473,8 @@
       <c r="M142" t="n">
         <v>131780.63</v>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>G0017500058706C</t>
-        </is>
+      <c r="N142" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="143">
@@ -8061,9 +7497,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>20190710</v>
-      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>深圳市奇莘科技有限公司</t>
@@ -8091,10 +7525,8 @@
       <c r="M143" t="n">
         <v>88828.25</v>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>G0017500058716C</t>
-        </is>
+      <c r="N143" t="n">
+        <v>20190710</v>
       </c>
     </row>
     <row r="144">
@@ -8117,9 +7549,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>20190711</v>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
@@ -8139,10 +7569,8 @@
       <c r="M144" t="n">
         <v>40435.15</v>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>K8167600034171C</t>
-        </is>
+      <c r="N144" t="n">
+        <v>20190711</v>
       </c>
     </row>
     <row r="145">
@@ -8165,9 +7593,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>20190712</v>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -8195,10 +7621,8 @@
       <c r="M145" t="n">
         <v>32009.53</v>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>G6795900246485C</t>
-        </is>
+      <c r="N145" t="n">
+        <v>20190712</v>
       </c>
     </row>
     <row r="146">
@@ -8221,9 +7645,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>20190712</v>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -8251,10 +7673,8 @@
       <c r="M146" t="n">
         <v>30926.53</v>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>G6795900246487C</t>
-        </is>
+      <c r="N146" t="n">
+        <v>20190712</v>
       </c>
     </row>
     <row r="147">
@@ -8277,9 +7697,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F147" t="n">
-        <v>20190712</v>
-      </c>
+      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -8307,10 +7725,8 @@
       <c r="M147" t="n">
         <v>19672.03</v>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>G6795900246489C</t>
-        </is>
+      <c r="N147" t="n">
+        <v>20190712</v>
       </c>
     </row>
     <row r="148">
@@ -8333,9 +7749,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>20190717</v>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -8363,10 +7777,8 @@
       <c r="M148" t="n">
         <v>9950.01</v>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>G5020200086003C</t>
-        </is>
+      <c r="N148" t="n">
+        <v>20190717</v>
       </c>
     </row>
     <row r="149">
@@ -8389,9 +7801,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>20190725</v>
-      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -8415,10 +7825,8 @@
       <c r="M149" t="n">
         <v>9651.469999999999</v>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>K2506800229560C</t>
-        </is>
+      <c r="N149" t="n">
+        <v>20190725</v>
       </c>
     </row>
     <row r="150">
@@ -8441,9 +7849,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>20190731</v>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
           <t>武汉众邦银行总行清算中心</t>
@@ -8471,10 +7877,8 @@
       <c r="M150" t="n">
         <v>19094.47</v>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>G3448300054981C</t>
-        </is>
+      <c r="N150" t="n">
+        <v>20190731</v>
       </c>
     </row>
     <row r="151">
@@ -8497,9 +7901,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>20190731</v>
-      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
           <t>环球赋辰（宁波）信息科技有限公司</t>
@@ -8527,10 +7929,8 @@
       <c r="M151" t="n">
         <v>12799.14</v>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>G0134000083524C</t>
-        </is>
+      <c r="N151" t="n">
+        <v>20190731</v>
       </c>
     </row>
     <row r="152">
@@ -8553,9 +7953,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>20190801</v>
-      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -8579,10 +7977,8 @@
       <c r="M152" t="n">
         <v>88105.39</v>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>G3124900109030C</t>
-        </is>
+      <c r="N152" t="n">
+        <v>20190801</v>
       </c>
     </row>
     <row r="153">
@@ -8605,9 +8001,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>20190801</v>
-      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -8635,10 +8029,8 @@
       <c r="M153" t="n">
         <v>4158.02</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>G9819200078099C</t>
-        </is>
+      <c r="N153" t="n">
+        <v>20190801</v>
       </c>
     </row>
     <row r="154">
@@ -8661,9 +8053,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>20190802</v>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
@@ -8683,10 +8073,8 @@
       <c r="M154" t="n">
         <v>4097.3</v>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>G8379300174913C</t>
-        </is>
+      <c r="N154" t="n">
+        <v>20190802</v>
       </c>
     </row>
     <row r="155">
@@ -8709,9 +8097,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>20190802</v>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -8731,10 +8117,8 @@
       <c r="M155" t="n">
         <v>4089.86</v>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>G8379300174916C</t>
-        </is>
+      <c r="N155" t="n">
+        <v>20190802</v>
       </c>
     </row>
     <row r="156">
@@ -8757,9 +8141,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>20190802</v>
-      </c>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -8779,10 +8161,8 @@
       <c r="M156" t="n">
         <v>4039.86</v>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>G8379300424609C</t>
-        </is>
+      <c r="N156" t="n">
+        <v>20190802</v>
       </c>
     </row>
     <row r="157">
@@ -8805,9 +8185,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>20190806</v>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -8831,10 +8209,8 @@
       <c r="M157" t="n">
         <v>104496.8</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>G9404900052097C</t>
-        </is>
+      <c r="N157" t="n">
+        <v>20190806</v>
       </c>
     </row>
     <row r="158">
@@ -8857,9 +8233,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F158" t="n">
-        <v>20190806</v>
-      </c>
+      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -8887,10 +8261,8 @@
       <c r="M158" t="n">
         <v>2736.8</v>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>G6308400082363C</t>
-        </is>
+      <c r="N158" t="n">
+        <v>20190806</v>
       </c>
     </row>
     <row r="159">
@@ -8913,9 +8285,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -8939,10 +8309,8 @@
       <c r="M159" t="n">
         <v>314243.74</v>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>G7477500031617C</t>
-        </is>
+      <c r="N159" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="160">
@@ -8965,9 +8333,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F160" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -8995,10 +8361,8 @@
       <c r="M160" t="n">
         <v>302564.84</v>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>G3133500067001C</t>
-        </is>
+      <c r="N160" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="161">
@@ -9021,9 +8385,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -9051,10 +8413,8 @@
       <c r="M161" t="n">
         <v>280941.34</v>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>G3133500111179C</t>
-        </is>
+      <c r="N161" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="162">
@@ -9077,9 +8437,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -9107,10 +8465,8 @@
       <c r="M162" t="n">
         <v>277282.34</v>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>G3133500111181C</t>
-        </is>
+      <c r="N162" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="163">
@@ -9133,9 +8489,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F163" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -9163,10 +8517,8 @@
       <c r="M163" t="n">
         <v>268608.34</v>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>G3133500111183C</t>
-        </is>
+      <c r="N163" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="164">
@@ -9189,9 +8541,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -9219,10 +8569,8 @@
       <c r="M164" t="n">
         <v>268197.34</v>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>G3133500111185C</t>
-        </is>
+      <c r="N164" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="165">
@@ -9245,9 +8593,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F165" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -9275,10 +8621,8 @@
       <c r="M165" t="n">
         <v>265197.34</v>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>G3133500111187C</t>
-        </is>
+      <c r="N165" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="166">
@@ -9301,9 +8645,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F166" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -9323,10 +8665,8 @@
       <c r="M166" t="n">
         <v>92899.45</v>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>KV012400026970C</t>
-        </is>
+      <c r="N166" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="167">
@@ -9349,9 +8689,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
@@ -9371,10 +8709,8 @@
       <c r="M167" t="n">
         <v>92894.95</v>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>KV001200083054C</t>
-        </is>
+      <c r="N167" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="168">
@@ -9397,9 +8733,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>20190809</v>
-      </c>
+      <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
@@ -9419,10 +8753,8 @@
       <c r="M168" t="n">
         <v>74904.95</v>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>K5639400111815C</t>
-        </is>
+      <c r="N168" t="n">
+        <v>20190809</v>
       </c>
     </row>
     <row r="169">
@@ -9445,9 +8777,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>20190812</v>
-      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -9471,10 +8801,8 @@
       <c r="M169" t="n">
         <v>58666.94</v>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>K0372200115369C</t>
-        </is>
+      <c r="N169" t="n">
+        <v>20190812</v>
       </c>
     </row>
     <row r="170">
@@ -9497,9 +8825,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>20190813</v>
-      </c>
+      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -9519,10 +8845,8 @@
       <c r="M170" t="n">
         <v>10273.84</v>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>K1514800078275C</t>
-        </is>
+      <c r="N170" t="n">
+        <v>20190813</v>
       </c>
     </row>
     <row r="171">
@@ -9545,9 +8869,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>20190814</v>
-      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
           <t>友众信业金融信息服务（上海）有限公司</t>
@@ -9575,10 +8897,8 @@
       <c r="M171" t="n">
         <v>20273.84</v>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>G7839500028696C</t>
-        </is>
+      <c r="N171" t="n">
+        <v>20190814</v>
       </c>
     </row>
     <row r="172">
@@ -9601,9 +8921,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>20190819</v>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -9627,10 +8945,8 @@
       <c r="M172" t="n">
         <v>30332.17</v>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>G4855200144418C</t>
-        </is>
+      <c r="N172" t="n">
+        <v>20190819</v>
       </c>
     </row>
     <row r="173">
@@ -9653,9 +8969,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>20190820</v>
-      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
           <t>上海疏韬企业管理咨询有限公司</t>
@@ -9683,10 +8997,8 @@
       <c r="M173" t="n">
         <v>5332.17</v>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>G9779100080344C</t>
-        </is>
+      <c r="N173" t="n">
+        <v>20190820</v>
       </c>
     </row>
     <row r="174">
@@ -9709,9 +9021,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>20190830</v>
-      </c>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -9735,10 +9045,8 @@
       <c r="M174" t="n">
         <v>161402.1</v>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>G9395700046832C</t>
-        </is>
+      <c r="N174" t="n">
+        <v>20190830</v>
       </c>
     </row>
     <row r="175">
@@ -9761,9 +9069,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>20190830</v>
-      </c>
+      <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -9791,10 +9097,8 @@
       <c r="M175" t="n">
         <v>79453.67</v>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>G4646500054165C</t>
-        </is>
+      <c r="N175" t="n">
+        <v>20190830</v>
       </c>
     </row>
     <row r="176">
@@ -9817,9 +9121,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>20190830</v>
-      </c>
+      <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -9847,10 +9149,8 @@
       <c r="M176" t="n">
         <v>2020.67</v>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>G4646500054167C</t>
-        </is>
+      <c r="N176" t="n">
+        <v>20190830</v>
       </c>
     </row>
     <row r="177">
@@ -9873,9 +9173,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>20190902</v>
-      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
@@ -9895,10 +9193,8 @@
       <c r="M177" t="n">
         <v>1955.11</v>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>G2475800020855C</t>
-        </is>
+      <c r="N177" t="n">
+        <v>20190902</v>
       </c>
     </row>
     <row r="178">
@@ -9921,9 +9217,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>20190902</v>
-      </c>
+      <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
@@ -9943,10 +9237,8 @@
       <c r="M178" t="n">
         <v>1954.18</v>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>G2475800226763C</t>
-        </is>
+      <c r="N178" t="n">
+        <v>20190902</v>
       </c>
     </row>
     <row r="179">
@@ -9969,9 +9261,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>20190902</v>
-      </c>
+      <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
@@ -9991,10 +9281,8 @@
       <c r="M179" t="n">
         <v>1904.18</v>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>G2475800333902C</t>
-        </is>
+      <c r="N179" t="n">
+        <v>20190902</v>
       </c>
     </row>
     <row r="180">
@@ -10017,9 +9305,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>20190909</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10043,10 +9329,8 @@
       <c r="M180" t="n">
         <v>27101.06</v>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>G0166500045744C</t>
-        </is>
+      <c r="N180" t="n">
+        <v>20190909</v>
       </c>
     </row>
     <row r="181">
@@ -10069,9 +9353,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>20190909</v>
-      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
           <t>上海疏韬企业管理咨询有限公司</t>
@@ -10099,10 +9381,8 @@
       <c r="M181" t="n">
         <v>2101.06</v>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>G6294300044674C</t>
-        </is>
+      <c r="N181" t="n">
+        <v>20190909</v>
       </c>
     </row>
     <row r="182">
@@ -10125,9 +9405,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10151,10 +9429,8 @@
       <c r="M182" t="n">
         <v>329692.03</v>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>G9083400082247C</t>
-        </is>
+      <c r="N182" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="183">
@@ -10177,9 +9453,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
@@ -10199,10 +9473,8 @@
       <c r="M183" t="n">
         <v>159220.88</v>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>KV896000039144C</t>
-        </is>
+      <c r="N183" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="184">
@@ -10225,9 +9497,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F184" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
@@ -10247,10 +9517,8 @@
       <c r="M184" t="n">
         <v>159216.38</v>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>KV902400069909C</t>
-        </is>
+      <c r="N184" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="185">
@@ -10273,9 +9541,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F185" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -10303,10 +9569,8 @@
       <c r="M185" t="n">
         <v>147311.88</v>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>G4302400097702C</t>
-        </is>
+      <c r="N185" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="186">
@@ -10329,9 +9593,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -10359,10 +9621,8 @@
       <c r="M186" t="n">
         <v>131751.38</v>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>G4302400097704C</t>
-        </is>
+      <c r="N186" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="187">
@@ -10385,9 +9645,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F187" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -10415,10 +9673,8 @@
       <c r="M187" t="n">
         <v>106570.88</v>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>G4302400097706C</t>
-        </is>
+      <c r="N187" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="188">
@@ -10441,9 +9697,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F188" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -10471,10 +9725,8 @@
       <c r="M188" t="n">
         <v>102981.88</v>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>G4302400097708C</t>
-        </is>
+      <c r="N188" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="189">
@@ -10497,9 +9749,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F189" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -10527,10 +9777,8 @@
       <c r="M189" t="n">
         <v>102769.98</v>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>G4302400097714C</t>
-        </is>
+      <c r="N189" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="190">
@@ -10553,9 +9801,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
           <t>张明珠</t>
@@ -10583,10 +9829,8 @@
       <c r="M190" t="n">
         <v>100720.98</v>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>G4302400097716C</t>
-        </is>
+      <c r="N190" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="191">
@@ -10609,9 +9853,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F191" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -10639,10 +9881,8 @@
       <c r="M191" t="n">
         <v>93068.06</v>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>G4302400097718C</t>
-        </is>
+      <c r="N191" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="192">
@@ -10665,9 +9905,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F192" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
           <t>熊唯</t>
@@ -10695,10 +9933,8 @@
       <c r="M192" t="n">
         <v>90068.06</v>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>G4302400097722C</t>
-        </is>
+      <c r="N192" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="193">
@@ -10721,9 +9957,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
@@ -10743,10 +9977,8 @@
       <c r="M193" t="n">
         <v>72078.06</v>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>K6340700045983C</t>
-        </is>
+      <c r="N193" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="194">
@@ -10769,9 +10001,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>20190910</v>
-      </c>
+      <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -10795,10 +10025,8 @@
       <c r="M194" t="n">
         <v>54013.31</v>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>K7648700096751C</t>
-        </is>
+      <c r="N194" t="n">
+        <v>20190910</v>
       </c>
     </row>
     <row r="195">
@@ -10821,9 +10049,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F195" t="n">
-        <v>20190911</v>
-      </c>
+      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
@@ -10843,10 +10069,8 @@
       <c r="M195" t="n">
         <v>5620.21</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>K0197100083604C</t>
-        </is>
+      <c r="N195" t="n">
+        <v>20190911</v>
       </c>
     </row>
     <row r="196">
@@ -10869,9 +10093,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F196" t="n">
-        <v>20190911</v>
-      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -10895,10 +10117,8 @@
       <c r="M196" t="n">
         <v>20741.25</v>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>G8435200066599C</t>
-        </is>
+      <c r="N196" t="n">
+        <v>20190911</v>
       </c>
     </row>
     <row r="197">
@@ -10921,9 +10141,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F197" t="n">
-        <v>20190911</v>
-      </c>
+      <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
           <t>德恒上海律师事务所</t>
@@ -10951,10 +10169,8 @@
       <c r="M197" t="n">
         <v>741.25</v>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>G5537100025629C</t>
-        </is>
+      <c r="N197" t="n">
+        <v>20190911</v>
       </c>
     </row>
     <row r="198">
@@ -10977,9 +10193,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>20190921</v>
-      </c>
+      <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
@@ -10999,10 +10213,8 @@
       <c r="M198" t="n">
         <v>767.61</v>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>G4316100000561C</t>
-        </is>
+      <c r="N198" t="n">
+        <v>20190921</v>
       </c>
     </row>
     <row r="199">
@@ -11025,9 +10237,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>20190929</v>
-      </c>
+      <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -11051,10 +10261,8 @@
       <c r="M199" t="n">
         <v>177486.01</v>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>G7503000025866C</t>
-        </is>
+      <c r="N199" t="n">
+        <v>20190929</v>
       </c>
     </row>
     <row r="200">
@@ -11077,9 +10285,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>20190929</v>
-      </c>
+      <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -11107,10 +10313,8 @@
       <c r="M200" t="n">
         <v>81526.00999999999</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>G2883400044143C</t>
-        </is>
+      <c r="N200" t="n">
+        <v>20190929</v>
       </c>
     </row>
     <row r="201">
@@ -11133,9 +10337,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F201" t="n">
-        <v>20190929</v>
-      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -11163,10 +10365,8 @@
       <c r="M201" t="n">
         <v>5206.01</v>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>G2883400044145C</t>
-        </is>
+      <c r="N201" t="n">
+        <v>20190929</v>
       </c>
     </row>
     <row r="202">
@@ -11189,9 +10389,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>20191002</v>
-      </c>
+      <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
@@ -11211,10 +10409,8 @@
       <c r="M202" t="n">
         <v>5205.08</v>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>G2576800152574C</t>
-        </is>
+      <c r="N202" t="n">
+        <v>20191002</v>
       </c>
     </row>
     <row r="203">
@@ -11237,9 +10433,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>20191002</v>
-      </c>
+      <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
@@ -11259,10 +10453,8 @@
       <c r="M203" t="n">
         <v>5162.8</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>G2576800170872C</t>
-        </is>
+      <c r="N203" t="n">
+        <v>20191002</v>
       </c>
     </row>
     <row r="204">
@@ -11285,9 +10477,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F204" t="n">
-        <v>20191002</v>
-      </c>
+      <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
@@ -11307,10 +10497,8 @@
       <c r="M204" t="n">
         <v>5112.8</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>G2576800654674C</t>
-        </is>
+      <c r="N204" t="n">
+        <v>20191002</v>
       </c>
     </row>
     <row r="205">
@@ -11333,9 +10521,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F205" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -11363,10 +10549,8 @@
       <c r="M205" t="n">
         <v>145112.8</v>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>G1989800124706C</t>
-        </is>
+      <c r="N205" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="206">
@@ -11389,9 +10573,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F206" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -11419,10 +10601,8 @@
       <c r="M206" t="n">
         <v>295112.8</v>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>G1989700083250C</t>
-        </is>
+      <c r="N206" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="207">
@@ -11445,9 +10625,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F207" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
@@ -11467,10 +10645,8 @@
       <c r="M207" t="n">
         <v>277122.8</v>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>K1563500055859C</t>
-        </is>
+      <c r="N207" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="208">
@@ -11493,9 +10669,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F208" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -11519,10 +10693,8 @@
       <c r="M208" t="n">
         <v>257136.32</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>K3833700080807C</t>
-        </is>
+      <c r="N208" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="209">
@@ -11545,9 +10717,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F209" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
           <t>韩偲超</t>
@@ -11575,10 +10745,8 @@
       <c r="M209" t="n">
         <v>239636.32</v>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>G9888200445473C</t>
-        </is>
+      <c r="N209" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="210">
@@ -11601,9 +10769,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F210" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -11631,10 +10797,8 @@
       <c r="M210" t="n">
         <v>227882.22</v>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>G9888200445475C</t>
-        </is>
+      <c r="N210" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="211">
@@ -11657,9 +10821,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F211" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -11687,10 +10849,8 @@
       <c r="M211" t="n">
         <v>227282.22</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>G9888200445477C</t>
-        </is>
+      <c r="N211" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="212">
@@ -11713,9 +10873,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F212" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
@@ -11735,10 +10893,8 @@
       <c r="M212" t="n">
         <v>52534.8</v>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>KV743400028922C</t>
-        </is>
+      <c r="N212" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="213">
@@ -11761,9 +10917,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F213" t="n">
-        <v>20191010</v>
-      </c>
+      <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
@@ -11783,10 +10937,8 @@
       <c r="M213" t="n">
         <v>52530.3</v>
       </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>KV734900035162C</t>
-        </is>
+      <c r="N213" t="n">
+        <v>20191010</v>
       </c>
     </row>
     <row r="214">
@@ -11809,9 +10961,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F214" t="n">
-        <v>20191011</v>
-      </c>
+      <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
@@ -11831,10 +10981,8 @@
       <c r="M214" t="n">
         <v>4137.2</v>
       </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>K1411200207264C</t>
-        </is>
+      <c r="N214" t="n">
+        <v>20191011</v>
       </c>
     </row>
     <row r="215">
@@ -11857,9 +11005,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F215" t="n">
-        <v>20191012</v>
-      </c>
+      <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -11883,10 +11029,8 @@
       <c r="M215" t="n">
         <v>3451.65</v>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>K9033900110484C</t>
-        </is>
+      <c r="N215" t="n">
+        <v>20191012</v>
       </c>
     </row>
     <row r="216">
@@ -11909,9 +11053,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F216" t="n">
-        <v>20191018</v>
-      </c>
+      <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
           <t>武汉众邦银行股份有限公司众邦宝支取户</t>
@@ -11935,10 +11077,8 @@
       <c r="M216" t="n">
         <v>28743.32</v>
       </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>G7734700088884C</t>
-        </is>
+      <c r="N216" t="n">
+        <v>20191018</v>
       </c>
     </row>
     <row r="217">
@@ -11961,9 +11101,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F217" t="n">
-        <v>20191018</v>
-      </c>
+      <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -11991,10 +11129,8 @@
       <c r="M217" t="n">
         <v>128743.32</v>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>G7734800240016C</t>
-        </is>
+      <c r="N217" t="n">
+        <v>20191018</v>
       </c>
     </row>
     <row r="218">
@@ -12017,9 +11153,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F218" t="n">
-        <v>20191018</v>
-      </c>
+      <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -12047,10 +11181,8 @@
       <c r="M218" t="n">
         <v>101543.32</v>
       </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>G5232200134805C</t>
-        </is>
+      <c r="N218" t="n">
+        <v>20191018</v>
       </c>
     </row>
     <row r="219">
@@ -12073,9 +11205,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F219" t="n">
-        <v>20191018</v>
-      </c>
+      <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -12103,10 +11233,8 @@
       <c r="M219" t="n">
         <v>95272.32000000001</v>
       </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>G5232200134807C</t>
-        </is>
+      <c r="N219" t="n">
+        <v>20191018</v>
       </c>
     </row>
     <row r="220">
@@ -12129,9 +11257,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F220" t="n">
-        <v>20191024</v>
-      </c>
+      <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr">
         <is>
           <t>德恒上海律师事务所</t>
@@ -12159,10 +11285,8 @@
       <c r="M220" t="n">
         <v>33397.32</v>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>G4856900037370C</t>
-        </is>
+      <c r="N220" t="n">
+        <v>20191024</v>
       </c>
     </row>
     <row r="221">
@@ -12185,9 +11309,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F221" t="n">
-        <v>20191030</v>
-      </c>
+      <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12215,10 +11337,8 @@
       <c r="M221" t="n">
         <v>233397.32</v>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>G3200200123355C</t>
-        </is>
+      <c r="N221" t="n">
+        <v>20191030</v>
       </c>
     </row>
     <row r="222">
@@ -12241,9 +11361,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F222" t="n">
-        <v>20191030</v>
-      </c>
+      <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -12271,10 +11389,8 @@
       <c r="M222" t="n">
         <v>155964.32</v>
       </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>G9491300054707C</t>
-        </is>
+      <c r="N222" t="n">
+        <v>20191030</v>
       </c>
     </row>
     <row r="223">
@@ -12297,9 +11413,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F223" t="n">
-        <v>20191030</v>
-      </c>
+      <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -12327,10 +11441,8 @@
       <c r="M223" t="n">
         <v>61134.32</v>
       </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>G9491300054713C</t>
-        </is>
+      <c r="N223" t="n">
+        <v>20191030</v>
       </c>
     </row>
     <row r="224">
@@ -12353,9 +11465,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F224" t="n">
-        <v>20191030</v>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12383,10 +11493,8 @@
       <c r="M224" t="n">
         <v>151134.32</v>
       </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>G3200300205923C</t>
-        </is>
+      <c r="N224" t="n">
+        <v>20191030</v>
       </c>
     </row>
     <row r="225">
@@ -12409,9 +11517,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F225" t="n">
-        <v>20191030</v>
-      </c>
+      <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
           <t>北京中科云链信息技术有限公司</t>
@@ -12439,10 +11545,8 @@
       <c r="M225" t="n">
         <v>1134.32</v>
       </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>K4161200080144C</t>
-        </is>
+      <c r="N225" t="n">
+        <v>20191030</v>
       </c>
     </row>
     <row r="226">
@@ -12465,9 +11569,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F226" t="n">
-        <v>20191101</v>
-      </c>
+      <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr">
         <is>
           <t>武汉众邦银行总行清算中心</t>
@@ -12495,10 +11597,8 @@
       <c r="M226" t="n">
         <v>24097.34</v>
       </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>G2485400076133C</t>
-        </is>
+      <c r="N226" t="n">
+        <v>20191101</v>
       </c>
     </row>
     <row r="227">
@@ -12521,9 +11621,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F227" t="n">
-        <v>20191102</v>
-      </c>
+      <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
@@ -12543,10 +11641,8 @@
       <c r="M227" t="n">
         <v>24054.97</v>
       </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>G9078700124951C</t>
-        </is>
+      <c r="N227" t="n">
+        <v>20191102</v>
       </c>
     </row>
     <row r="228">
@@ -12569,9 +11665,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F228" t="n">
-        <v>20191102</v>
-      </c>
+      <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
@@ -12591,10 +11685,8 @@
       <c r="M228" t="n">
         <v>24054.04</v>
       </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>G9078700147446C</t>
-        </is>
+      <c r="N228" t="n">
+        <v>20191102</v>
       </c>
     </row>
     <row r="229">
@@ -12617,9 +11709,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F229" t="n">
-        <v>20191102</v>
-      </c>
+      <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
@@ -12639,10 +11729,8 @@
       <c r="M229" t="n">
         <v>24004.04</v>
       </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>G9078700558344C</t>
-        </is>
+      <c r="N229" t="n">
+        <v>20191102</v>
       </c>
     </row>
     <row r="230">
@@ -12665,9 +11753,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F230" t="n">
-        <v>20191103</v>
-      </c>
+      <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
@@ -12687,10 +11773,8 @@
       <c r="M230" t="n">
         <v>24003.44</v>
       </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>K9019700182013C</t>
-        </is>
+      <c r="N230" t="n">
+        <v>20191103</v>
       </c>
     </row>
     <row r="231">
@@ -12713,9 +11797,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F231" t="n">
-        <v>20191106</v>
-      </c>
+      <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
         <is>
           <t>环球赋辰（宁波）信息科技有限公司</t>
@@ -12743,10 +11825,8 @@
       <c r="M231" t="n">
         <v>8694.76</v>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>G8445700084052C</t>
-        </is>
+      <c r="N231" t="n">
+        <v>20191106</v>
       </c>
     </row>
     <row r="232">
@@ -12769,9 +11849,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F232" t="n">
-        <v>20191107</v>
-      </c>
+      <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
           <t>上海富数科技有限公司</t>
@@ -12795,10 +11873,8 @@
       <c r="M232" t="n">
         <v>38694.76</v>
       </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>G0004800136761C</t>
-        </is>
+      <c r="N232" t="n">
+        <v>20191107</v>
       </c>
     </row>
     <row r="233">
@@ -12821,9 +11897,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F233" t="n">
-        <v>20191108</v>
-      </c>
+      <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -12851,10 +11925,8 @@
       <c r="M233" t="n">
         <v>238694.76</v>
       </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>G9323500431225C</t>
-        </is>
+      <c r="N233" t="n">
+        <v>20191108</v>
       </c>
     </row>
     <row r="234">
@@ -12877,9 +11949,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F234" t="n">
-        <v>20191108</v>
-      </c>
+      <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -12907,10 +11977,8 @@
       <c r="M234" t="n">
         <v>226940.66</v>
       </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>G7523800054810C</t>
-        </is>
+      <c r="N234" t="n">
+        <v>20191108</v>
       </c>
     </row>
     <row r="235">
@@ -12933,9 +12001,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F235" t="n">
-        <v>20191108</v>
-      </c>
+      <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
@@ -12955,10 +12021,8 @@
       <c r="M235" t="n">
         <v>95355.49000000001</v>
       </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>KV416300366199C</t>
-        </is>
+      <c r="N235" t="n">
+        <v>20191108</v>
       </c>
     </row>
     <row r="236">
@@ -12981,9 +12045,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F236" t="n">
-        <v>20191108</v>
-      </c>
+      <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
@@ -13003,10 +12065,8 @@
       <c r="M236" t="n">
         <v>95351.49000000001</v>
       </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>KV430300064029C</t>
-        </is>
+      <c r="N236" t="n">
+        <v>20191108</v>
       </c>
     </row>
     <row r="237">
@@ -13029,9 +12089,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F237" t="n">
-        <v>20191111</v>
-      </c>
+      <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
@@ -13051,10 +12109,8 @@
       <c r="M237" t="n">
         <v>79671.49000000001</v>
       </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>K2351300063596C</t>
-        </is>
+      <c r="N237" t="n">
+        <v>20191111</v>
       </c>
     </row>
     <row r="238">
@@ -13077,9 +12133,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F238" t="n">
-        <v>20191111</v>
-      </c>
+      <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -13103,10 +12157,8 @@
       <c r="M238" t="n">
         <v>65893.25999999999</v>
       </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>K3690300038060C</t>
-        </is>
+      <c r="N238" t="n">
+        <v>20191111</v>
       </c>
     </row>
     <row r="239">
@@ -13129,9 +12181,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F239" t="n">
-        <v>20191111</v>
-      </c>
+      <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr">
         <is>
           <t>友众信业金融信息服务（上海）有限公司</t>
@@ -13159,10 +12209,8 @@
       <c r="M239" t="n">
         <v>55893.26</v>
       </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>G0996000095183C</t>
-        </is>
+      <c r="N239" t="n">
+        <v>20191111</v>
       </c>
     </row>
     <row r="240">
@@ -13185,9 +12233,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F240" t="n">
-        <v>20191112</v>
-      </c>
+      <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
@@ -13207,10 +12253,8 @@
       <c r="M240" t="n">
         <v>13714.06</v>
       </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>K0558900038400C</t>
-        </is>
+      <c r="N240" t="n">
+        <v>20191112</v>
       </c>
     </row>
     <row r="241">
@@ -13233,9 +12277,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F241" t="n">
-        <v>20191118</v>
-      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13263,10 +12305,8 @@
       <c r="M241" t="n">
         <v>93714.06</v>
       </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>G5068400120908C</t>
-        </is>
+      <c r="N241" t="n">
+        <v>20191118</v>
       </c>
     </row>
     <row r="242">
@@ -13289,9 +12329,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F242" t="n">
-        <v>20191118</v>
-      </c>
+      <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
           <t>广州探迹科技有限公司</t>
@@ -13319,10 +12357,8 @@
       <c r="M242" t="n">
         <v>17394.06</v>
       </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>G0572200050894C</t>
-        </is>
+      <c r="N242" t="n">
+        <v>20191118</v>
       </c>
     </row>
     <row r="243">
@@ -13345,9 +12381,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F243" t="n">
-        <v>20191120</v>
-      </c>
+      <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -13375,10 +12409,8 @@
       <c r="M243" t="n">
         <v>14514.06</v>
       </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>G9306200045142C</t>
-        </is>
+      <c r="N243" t="n">
+        <v>20191120</v>
       </c>
     </row>
     <row r="244">
@@ -13401,9 +12433,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F244" t="n">
-        <v>20191202</v>
-      </c>
+      <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
@@ -13423,10 +12453,8 @@
       <c r="M244" t="n">
         <v>14485.94</v>
       </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>G0410900114086C</t>
-        </is>
+      <c r="N244" t="n">
+        <v>20191202</v>
       </c>
     </row>
     <row r="245">
@@ -13449,9 +12477,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F245" t="n">
-        <v>20191202</v>
-      </c>
+      <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
@@ -13471,10 +12497,8 @@
       <c r="M245" t="n">
         <v>14485.01</v>
       </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>G0410900237205C</t>
-        </is>
+      <c r="N245" t="n">
+        <v>20191202</v>
       </c>
     </row>
     <row r="246">
@@ -13497,9 +12521,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F246" t="n">
-        <v>20191202</v>
-      </c>
+      <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
@@ -13519,10 +12541,8 @@
       <c r="M246" t="n">
         <v>14435.01</v>
       </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>G0410900603946C</t>
-        </is>
+      <c r="N246" t="n">
+        <v>20191202</v>
       </c>
     </row>
     <row r="247">
@@ -13545,9 +12565,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F247" t="n">
-        <v>20191202</v>
-      </c>
+      <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13575,10 +12593,8 @@
       <c r="M247" t="n">
         <v>113435.01</v>
       </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>G2947500171228C</t>
-        </is>
+      <c r="N247" t="n">
+        <v>20191202</v>
       </c>
     </row>
     <row r="248">
@@ -13601,9 +12617,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F248" t="n">
-        <v>20191202</v>
-      </c>
+      <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -13631,10 +12645,8 @@
       <c r="M248" t="n">
         <v>14766.59</v>
       </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>G8633100088965C</t>
-        </is>
+      <c r="N248" t="n">
+        <v>20191202</v>
       </c>
     </row>
     <row r="249">
@@ -13657,9 +12669,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F249" t="n">
-        <v>20191203</v>
-      </c>
+      <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
           <t>上海优音云端通信有限公司</t>
@@ -13687,10 +12697,8 @@
       <c r="M249" t="n">
         <v>12966.59</v>
       </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>G9221400070114C</t>
-        </is>
+      <c r="N249" t="n">
+        <v>20191203</v>
       </c>
     </row>
     <row r="250">
@@ -13713,9 +12721,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F250" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -13743,10 +12749,8 @@
       <c r="M250" t="n">
         <v>247966.59</v>
       </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>G7331300102012C</t>
-        </is>
+      <c r="N250" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="251">
@@ -13769,9 +12773,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F251" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -13795,10 +12797,8 @@
       <c r="M251" t="n">
         <v>233650.06</v>
       </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>K7855500066430C</t>
-        </is>
+      <c r="N251" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="252">
@@ -13821,9 +12821,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F252" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
@@ -13843,10 +12841,8 @@
       <c r="M252" t="n">
         <v>217970.06</v>
       </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>K6281800060426C</t>
-        </is>
+      <c r="N252" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="253">
@@ -13869,9 +12865,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F253" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
@@ -13891,10 +12885,8 @@
       <c r="M253" t="n">
         <v>86203.19</v>
       </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>KV995200082771C</t>
-        </is>
+      <c r="N253" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="254">
@@ -13917,9 +12909,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F254" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
@@ -13939,10 +12929,8 @@
       <c r="M254" t="n">
         <v>86199.19</v>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>KV986000086782C</t>
-        </is>
+      <c r="N254" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="255">
@@ -13965,9 +12953,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F255" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -13995,10 +12981,8 @@
       <c r="M255" t="n">
         <v>74445.09</v>
       </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>G4224600398440C</t>
-        </is>
+      <c r="N255" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="256">
@@ -14021,9 +13005,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F256" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14051,10 +13033,8 @@
       <c r="M256" t="n">
         <v>60495.09</v>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>G4224600398444C</t>
-        </is>
+      <c r="N256" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="257">
@@ -14077,9 +13057,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F257" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -14107,10 +13085,8 @@
       <c r="M257" t="n">
         <v>51513.81</v>
       </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>G4224600398446C</t>
-        </is>
+      <c r="N257" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="258">
@@ -14133,9 +13109,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F258" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr">
         <is>
           <t>姚琳</t>
@@ -14163,10 +13137,8 @@
       <c r="M258" t="n">
         <v>49056.81</v>
       </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>G4224600398448C</t>
-        </is>
+      <c r="N258" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="259">
@@ -14189,9 +13161,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F259" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr">
         <is>
           <t>单智垚</t>
@@ -14219,10 +13189,8 @@
       <c r="M259" t="n">
         <v>47816.81</v>
       </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>G4224600398450C</t>
-        </is>
+      <c r="N259" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="260">
@@ -14245,9 +13213,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F260" t="n">
-        <v>20191210</v>
-      </c>
+      <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
           <t>严勇</t>
@@ -14275,10 +13241,8 @@
       <c r="M260" t="n">
         <v>46571.81</v>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>G4224600398452C</t>
-        </is>
+      <c r="N260" t="n">
+        <v>20191210</v>
       </c>
     </row>
     <row r="261">
@@ -14301,9 +13265,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F261" t="n">
-        <v>20191211</v>
-      </c>
+      <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
@@ -14323,10 +13285,8 @@
       <c r="M261" t="n">
         <v>4392.61</v>
       </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>K8769800193200C</t>
-        </is>
+      <c r="N261" t="n">
+        <v>20191211</v>
       </c>
     </row>
     <row r="262">
@@ -14349,9 +13309,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F262" t="n">
-        <v>20191212</v>
-      </c>
+      <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -14379,10 +13337,8 @@
       <c r="M262" t="n">
         <v>2472.61</v>
       </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>G2782400141497C</t>
-        </is>
+      <c r="N262" t="n">
+        <v>20191212</v>
       </c>
     </row>
     <row r="263">
@@ -14405,9 +13361,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F263" t="n">
-        <v>20191221</v>
-      </c>
+      <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
@@ -14427,10 +13381,8 @@
       <c r="M263" t="n">
         <v>2488.39</v>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>G1825600146092C</t>
-        </is>
+      <c r="N263" t="n">
+        <v>20191221</v>
       </c>
     </row>
     <row r="264">
@@ -14453,9 +13405,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F264" t="n">
-        <v>20191227</v>
-      </c>
+      <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14483,10 +13433,8 @@
       <c r="M264" t="n">
         <v>142488.39</v>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>G7354400620082C</t>
-        </is>
+      <c r="N264" t="n">
+        <v>20191227</v>
       </c>
     </row>
     <row r="265">
@@ -14509,9 +13457,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F265" t="n">
-        <v>20191227</v>
-      </c>
+      <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -14539,10 +13485,8 @@
       <c r="M265" t="n">
         <v>42882.2</v>
       </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>G4128200141048C</t>
-        </is>
+      <c r="N265" t="n">
+        <v>20191227</v>
       </c>
     </row>
     <row r="266">
@@ -14565,9 +13509,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F266" t="n">
-        <v>20191227</v>
-      </c>
+      <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr">
         <is>
           <t>上海梦轩创意广告有限公司</t>
@@ -14595,10 +13537,8 @@
       <c r="M266" t="n">
         <v>42432.2</v>
       </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>G4128200141050C</t>
-        </is>
+      <c r="N266" t="n">
+        <v>20191227</v>
       </c>
     </row>
     <row r="267">
@@ -14621,9 +13561,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F267" t="n">
-        <v>20200102</v>
-      </c>
+      <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
@@ -14643,10 +13581,8 @@
       <c r="M267" t="n">
         <v>42404.08</v>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>G9412200037904C</t>
-        </is>
+      <c r="N267" t="n">
+        <v>20200102</v>
       </c>
     </row>
     <row r="268">
@@ -14669,9 +13605,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F268" t="n">
-        <v>20200102</v>
-      </c>
+      <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
@@ -14691,10 +13625,8 @@
       <c r="M268" t="n">
         <v>42401.29</v>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>G9412200076954C</t>
-        </is>
+      <c r="N268" t="n">
+        <v>20200102</v>
       </c>
     </row>
     <row r="269">
@@ -14717,9 +13649,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F269" t="n">
-        <v>20200102</v>
-      </c>
+      <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
@@ -14739,10 +13669,8 @@
       <c r="M269" t="n">
         <v>42351.29</v>
       </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>G9412200524057C</t>
-        </is>
+      <c r="N269" t="n">
+        <v>20200102</v>
       </c>
     </row>
     <row r="270">
@@ -14765,9 +13693,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F270" t="n">
-        <v>20200106</v>
-      </c>
+      <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -14791,10 +13717,8 @@
       <c r="M270" t="n">
         <v>40367.38</v>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>K9465200053170C</t>
-        </is>
+      <c r="N270" t="n">
+        <v>20200106</v>
       </c>
     </row>
     <row r="271">
@@ -14817,9 +13741,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F271" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14847,10 +13769,8 @@
       <c r="M271" t="n">
         <v>230367.38</v>
       </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>G8257700099637C</t>
-        </is>
+      <c r="N271" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="272">
@@ -14873,9 +13793,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F272" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -14903,10 +13821,8 @@
       <c r="M272" t="n">
         <v>320367.38</v>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>G8257700101131C</t>
-        </is>
+      <c r="N272" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="273">
@@ -14929,9 +13845,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F273" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
@@ -14951,10 +13865,8 @@
       <c r="M273" t="n">
         <v>184751.81</v>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>KV349500188735C</t>
-        </is>
+      <c r="N273" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="274">
@@ -14977,9 +13889,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F274" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
@@ -14999,10 +13909,8 @@
       <c r="M274" t="n">
         <v>184747.81</v>
       </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>KV360000139163C</t>
-        </is>
+      <c r="N274" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="275">
@@ -15025,9 +13933,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F275" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -15055,10 +13961,8 @@
       <c r="M275" t="n">
         <v>172993.71</v>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>G6317600192320C</t>
-        </is>
+      <c r="N275" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="276">
@@ -15081,9 +13985,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F276" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
           <t>上海创信知识产权服务有限公司</t>
@@ -15111,10 +14013,8 @@
       <c r="M276" t="n">
         <v>168673.71</v>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>G6317600192322C</t>
-        </is>
+      <c r="N276" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="277">
@@ -15137,9 +14037,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F277" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
           <t>挖财网络技术有限公司</t>
@@ -15167,10 +14065,8 @@
       <c r="M277" t="n">
         <v>132973.71</v>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>G6317600192324C</t>
-        </is>
+      <c r="N277" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="278">
@@ -15193,9 +14089,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F278" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15223,10 +14117,8 @@
       <c r="M278" t="n">
         <v>114547.75</v>
       </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>G6317600192326C</t>
-        </is>
+      <c r="N278" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="279">
@@ -15249,9 +14141,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F279" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr">
         <is>
           <t>覃添</t>
@@ -15279,10 +14169,8 @@
       <c r="M279" t="n">
         <v>112651.75</v>
       </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>G6317600192328C</t>
-        </is>
+      <c r="N279" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="280">
@@ -15305,9 +14193,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F280" t="n">
-        <v>20200110</v>
-      </c>
+      <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr">
         <is>
           <t>郑强</t>
@@ -15335,10 +14221,8 @@
       <c r="M280" t="n">
         <v>112301.95</v>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>G6317600192330C</t>
-        </is>
+      <c r="N280" t="n">
+        <v>20200110</v>
       </c>
     </row>
     <row r="281">
@@ -15361,9 +14245,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F281" t="n">
-        <v>20200113</v>
-      </c>
+      <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
@@ -15383,10 +14265,8 @@
       <c r="M281" t="n">
         <v>70122.75</v>
       </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>K8863800161201C</t>
-        </is>
+      <c r="N281" t="n">
+        <v>20200113</v>
       </c>
     </row>
     <row r="282">
@@ -15409,9 +14289,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F282" t="n">
-        <v>20200113</v>
-      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -15435,10 +14313,8 @@
       <c r="M282" t="n">
         <v>54845.92</v>
       </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>K1059500050862C</t>
-        </is>
+      <c r="N282" t="n">
+        <v>20200113</v>
       </c>
     </row>
     <row r="283">
@@ -15461,9 +14337,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F283" t="n">
-        <v>20200113</v>
-      </c>
+      <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
@@ -15483,10 +14357,8 @@
       <c r="M283" t="n">
         <v>39165.92</v>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>K2185800190007C</t>
-        </is>
+      <c r="N283" t="n">
+        <v>20200113</v>
       </c>
     </row>
     <row r="284">
@@ -15509,9 +14381,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F284" t="n">
-        <v>20200119</v>
-      </c>
+      <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15539,10 +14409,8 @@
       <c r="M284" t="n">
         <v>159165.92</v>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>G4155100184937C</t>
-        </is>
+      <c r="N284" t="n">
+        <v>20200119</v>
       </c>
     </row>
     <row r="285">
@@ -15565,9 +14433,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F285" t="n">
-        <v>20200119</v>
-      </c>
+      <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -15595,10 +14461,8 @@
       <c r="M285" t="n">
         <v>63005.92</v>
       </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>G9664000167387C</t>
-        </is>
+      <c r="N285" t="n">
+        <v>20200119</v>
       </c>
     </row>
     <row r="286">
@@ -15621,9 +14485,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F286" t="n">
-        <v>20200119</v>
-      </c>
+      <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr">
         <is>
           <t>上海擘峰企业管理合伙企业（有限合伙）</t>
@@ -15651,10 +14513,8 @@
       <c r="M286" t="n">
         <v>13005.92</v>
       </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>G9664000167389C</t>
-        </is>
+      <c r="N286" t="n">
+        <v>20200119</v>
       </c>
     </row>
     <row r="287">
@@ -15677,9 +14537,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F287" t="n">
-        <v>20200202</v>
-      </c>
+      <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
@@ -15699,10 +14557,8 @@
       <c r="M287" t="n">
         <v>12973.05</v>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>G3061400194370C</t>
-        </is>
+      <c r="N287" t="n">
+        <v>20200202</v>
       </c>
     </row>
     <row r="288">
@@ -15725,9 +14581,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F288" t="n">
-        <v>20200202</v>
-      </c>
+      <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
@@ -15747,10 +14601,8 @@
       <c r="M288" t="n">
         <v>12971.19</v>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>G3061400194373C</t>
-        </is>
+      <c r="N288" t="n">
+        <v>20200202</v>
       </c>
     </row>
     <row r="289">
@@ -15773,9 +14625,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F289" t="n">
-        <v>20200202</v>
-      </c>
+      <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
@@ -15795,10 +14645,8 @@
       <c r="M289" t="n">
         <v>12921.19</v>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>G3061400393751C</t>
-        </is>
+      <c r="N289" t="n">
+        <v>20200202</v>
       </c>
     </row>
     <row r="290">
@@ -15821,9 +14669,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F290" t="n">
-        <v>20200210</v>
-      </c>
+      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -15851,10 +14697,8 @@
       <c r="M290" t="n">
         <v>217921.19</v>
       </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>G1094200310255C</t>
-        </is>
+      <c r="N290" t="n">
+        <v>20200210</v>
       </c>
     </row>
     <row r="291">
@@ -15877,9 +14721,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F291" t="n">
-        <v>20200210</v>
-      </c>
+      <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
           <t>北京众合天下管理咨询有限公司</t>
@@ -15907,10 +14749,8 @@
       <c r="M291" t="n">
         <v>206167.09</v>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>K9079800129587C</t>
-        </is>
+      <c r="N291" t="n">
+        <v>20200210</v>
       </c>
     </row>
     <row r="292">
@@ -15933,9 +14773,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F292" t="n">
-        <v>20200210</v>
-      </c>
+      <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
@@ -15955,10 +14793,8 @@
       <c r="M292" t="n">
         <v>62997.13</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>K0207400047601C</t>
-        </is>
+      <c r="N292" t="n">
+        <v>20200210</v>
       </c>
     </row>
     <row r="293">
@@ -15981,9 +14817,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F293" t="n">
-        <v>20200210</v>
-      </c>
+      <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
@@ -16003,10 +14837,8 @@
       <c r="M293" t="n">
         <v>62993.13</v>
       </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>KV034700048067C</t>
-        </is>
+      <c r="N293" t="n">
+        <v>20200210</v>
       </c>
     </row>
     <row r="294">
@@ -16029,9 +14861,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F294" t="n">
-        <v>20200211</v>
-      </c>
+      <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
@@ -16051,10 +14881,8 @@
       <c r="M294" t="n">
         <v>20813.93</v>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>K9346000316865C</t>
-        </is>
+      <c r="N294" t="n">
+        <v>20200211</v>
       </c>
     </row>
     <row r="295">
@@ -16077,9 +14905,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F295" t="n">
-        <v>20200218</v>
-      </c>
+      <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
@@ -16099,10 +14925,8 @@
       <c r="M295" t="n">
         <v>5133.93</v>
       </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>K9754500070943C</t>
-        </is>
+      <c r="N295" t="n">
+        <v>20200218</v>
       </c>
     </row>
     <row r="296">
@@ -16125,9 +14949,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F296" t="n">
-        <v>20200218</v>
-      </c>
+      <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
           <t>国家税务总局上海市崇明区税务局</t>
@@ -16151,10 +14973,8 @@
       <c r="M296" t="n">
         <v>2580.49</v>
       </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>K9956500087446C</t>
-        </is>
+      <c r="N296" t="n">
+        <v>20200218</v>
       </c>
     </row>
     <row r="297">
@@ -16177,9 +14997,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F297" t="n">
-        <v>20200227</v>
-      </c>
+      <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
           <t>阿尔标知识产权代理有限公司</t>
@@ -16207,10 +15025,8 @@
       <c r="M297" t="n">
         <v>780.49</v>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>G6976800197578C</t>
-        </is>
+      <c r="N297" t="n">
+        <v>20200227</v>
       </c>
     </row>
     <row r="298">
@@ -16233,9 +15049,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F298" t="n">
-        <v>20200228</v>
-      </c>
+      <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -16263,10 +15077,8 @@
       <c r="M298" t="n">
         <v>97780.49000000001</v>
       </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>G0180400079590C</t>
-        </is>
+      <c r="N298" t="n">
+        <v>20200228</v>
       </c>
     </row>
     <row r="299">
@@ -16289,9 +15101,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F299" t="n">
-        <v>20200228</v>
-      </c>
+      <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -16319,10 +15129,8 @@
       <c r="M299" t="n">
         <v>1033.43</v>
       </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>G9028600166079C</t>
-        </is>
+      <c r="N299" t="n">
+        <v>20200228</v>
       </c>
     </row>
     <row r="300">
@@ -16345,9 +15153,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F300" t="n">
-        <v>20200228</v>
-      </c>
+      <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
           <t>容宇</t>
@@ -16375,10 +15181,8 @@
       <c r="M300" t="n">
         <v>3033.43</v>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>G0180200114230C</t>
-        </is>
+      <c r="N300" t="n">
+        <v>20200228</v>
       </c>
     </row>
     <row r="301">
@@ -16401,9 +15205,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F301" t="n">
-        <v>20200228</v>
-      </c>
+      <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
           <t>广西南宁数拓信息科技有限公司</t>
@@ -16431,10 +15233,8 @@
       <c r="M301" t="n">
         <v>233.43</v>
       </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>G9028600196025C</t>
-        </is>
+      <c r="N301" t="n">
+        <v>20200228</v>
       </c>
     </row>
     <row r="302">
@@ -16457,9 +15257,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F302" t="n">
-        <v>20200302</v>
-      </c>
+      <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
@@ -16479,10 +15277,8 @@
       <c r="M302" t="n">
         <v>214.8</v>
       </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>G1539900185381C</t>
-        </is>
+      <c r="N302" t="n">
+        <v>20200302</v>
       </c>
     </row>
     <row r="303">
@@ -16505,9 +15301,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F303" t="n">
-        <v>20200302</v>
-      </c>
+      <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
@@ -16527,10 +15321,8 @@
       <c r="M303" t="n">
         <v>164.8</v>
       </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>G1539900552633C</t>
-        </is>
+      <c r="N303" t="n">
+        <v>20200302</v>
       </c>
     </row>
     <row r="304">
@@ -16553,9 +15345,7 @@
           <t>121931252210106</t>
         </is>
       </c>
-      <c r="F304" t="n">
-        <v>20200303</v>
-      </c>
+      <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
@@ -16575,10 +15365,8 @@
       <c r="M304" t="n">
         <v>164.2</v>
       </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>K1125000105189C</t>
-        </is>
+      <c r="N304" t="n">
+        <v>20200303</v>
       </c>
     </row>
   </sheetData>

--- a/Liushui/output/output2.xlsx
+++ b/Liushui/output/output2.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -437,8 +441,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>20190202</v>
+      <c r="B2" s="2" t="n">
+        <v>43498</v>
       </c>
       <c r="C2" t="n">
         <v>41850</v>
@@ -481,8 +485,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>20190202</v>
+      <c r="B3" s="2" t="n">
+        <v>43498</v>
       </c>
       <c r="C3" t="n">
         <v>42731</v>
@@ -525,8 +529,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>20190202</v>
+      <c r="B4" s="2" t="n">
+        <v>43498</v>
       </c>
       <c r="C4" t="n">
         <v>44954</v>
@@ -569,8 +573,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>20190212</v>
+      <c r="B5" s="2" t="n">
+        <v>43508</v>
       </c>
       <c r="C5" t="n">
         <v>2940</v>
@@ -613,8 +617,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>20190213</v>
+      <c r="B6" s="2" t="n">
+        <v>43509</v>
       </c>
       <c r="C6" t="n">
         <v>100651</v>
@@ -657,8 +661,8 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>20190213</v>
+      <c r="B7" s="2" t="n">
+        <v>43509</v>
       </c>
       <c r="C7" t="n">
         <v>173930</v>
@@ -709,8 +713,8 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>20190215</v>
+      <c r="B8" s="2" t="n">
+        <v>43511</v>
       </c>
       <c r="C8" t="n">
         <v>95357</v>
@@ -757,8 +761,8 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>20190302</v>
+      <c r="B9" s="2" t="n">
+        <v>43526</v>
       </c>
       <c r="C9" t="n">
         <v>40827</v>
@@ -801,8 +805,8 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>20190302</v>
+      <c r="B10" s="2" t="n">
+        <v>43526</v>
       </c>
       <c r="C10" t="n">
         <v>44407</v>
@@ -845,8 +849,8 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>20190311</v>
+      <c r="B11" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C11" t="n">
         <v>145132</v>
@@ -897,8 +901,8 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>20190311</v>
+      <c r="B12" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C12" t="n">
         <v>145132</v>
@@ -949,8 +953,8 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>20190311</v>
+      <c r="B13" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C13" t="n">
         <v>145132</v>
@@ -1001,8 +1005,8 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>20190311</v>
+      <c r="B14" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C14" t="n">
         <v>145132</v>
@@ -1053,8 +1057,8 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>20190311</v>
+      <c r="B15" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C15" t="n">
         <v>145132</v>
@@ -1105,8 +1109,8 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>20190311</v>
+      <c r="B16" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C16" t="n">
         <v>145132</v>
@@ -1157,8 +1161,8 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>20190311</v>
+      <c r="B17" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C17" t="n">
         <v>145132</v>
@@ -1209,8 +1213,8 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>20190311</v>
+      <c r="B18" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C18" t="n">
         <v>145132</v>
@@ -1261,8 +1265,8 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>20190311</v>
+      <c r="B19" s="2" t="n">
+        <v>43535</v>
       </c>
       <c r="C19" t="n">
         <v>145133</v>
@@ -1313,8 +1317,8 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>20190312</v>
+      <c r="B20" s="2" t="n">
+        <v>43536</v>
       </c>
       <c r="C20" t="n">
         <v>436</v>
@@ -1357,8 +1361,8 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>20190312</v>
+      <c r="B21" s="2" t="n">
+        <v>43536</v>
       </c>
       <c r="C21" t="n">
         <v>105519</v>
@@ -1405,8 +1409,8 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>20190314</v>
+      <c r="B22" s="2" t="n">
+        <v>43538</v>
       </c>
       <c r="C22" t="n">
         <v>83108</v>
@@ -1457,8 +1461,8 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>20190314</v>
+      <c r="B23" s="2" t="n">
+        <v>43538</v>
       </c>
       <c r="C23" t="n">
         <v>94147</v>
@@ -1509,8 +1513,8 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>20190314</v>
+      <c r="B24" s="2" t="n">
+        <v>43538</v>
       </c>
       <c r="C24" t="n">
         <v>95829</v>
@@ -1553,8 +1557,8 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>20190318</v>
+      <c r="B25" s="2" t="n">
+        <v>43542</v>
       </c>
       <c r="C25" t="n">
         <v>152246</v>
@@ -1605,8 +1609,8 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>20190319</v>
+      <c r="B26" s="2" t="n">
+        <v>43543</v>
       </c>
       <c r="C26" t="n">
         <v>210337</v>
@@ -1657,8 +1661,8 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>20190320</v>
+      <c r="B27" s="2" t="n">
+        <v>43544</v>
       </c>
       <c r="C27" t="n">
         <v>144221</v>
@@ -1705,8 +1709,8 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>20190321</v>
+      <c r="B28" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C28" t="n">
         <v>22303</v>
@@ -1749,8 +1753,8 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>20190321</v>
+      <c r="B29" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C29" t="n">
         <v>113113</v>
@@ -1801,8 +1805,8 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>20190321</v>
+      <c r="B30" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C30" t="n">
         <v>113113</v>
@@ -1853,8 +1857,8 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>20190321</v>
+      <c r="B31" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C31" t="n">
         <v>113113</v>
@@ -1905,8 +1909,8 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>20190321</v>
+      <c r="B32" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C32" t="n">
         <v>113113</v>
@@ -1957,8 +1961,8 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>20190321</v>
+      <c r="B33" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C33" t="n">
         <v>113113</v>
@@ -2009,8 +2013,8 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>20190321</v>
+      <c r="B34" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C34" t="n">
         <v>113113</v>
@@ -2061,8 +2065,8 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>20190321</v>
+      <c r="B35" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C35" t="n">
         <v>113113</v>
@@ -2113,8 +2117,8 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>20190321</v>
+      <c r="B36" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C36" t="n">
         <v>113113</v>
@@ -2165,8 +2169,8 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>20190321</v>
+      <c r="B37" s="2" t="n">
+        <v>43545</v>
       </c>
       <c r="C37" t="n">
         <v>165109</v>
@@ -2217,8 +2221,8 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>20190402</v>
+      <c r="B38" s="2" t="n">
+        <v>43557</v>
       </c>
       <c r="C38" t="n">
         <v>43040</v>
@@ -2261,8 +2265,8 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>20190402</v>
+      <c r="B39" s="2" t="n">
+        <v>43557</v>
       </c>
       <c r="C39" t="n">
         <v>43040</v>
@@ -2305,8 +2309,8 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>20190402</v>
+      <c r="B40" s="2" t="n">
+        <v>43557</v>
       </c>
       <c r="C40" t="n">
         <v>44343</v>
@@ -2349,8 +2353,8 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>20190408</v>
+      <c r="B41" s="2" t="n">
+        <v>43563</v>
       </c>
       <c r="C41" t="n">
         <v>102804</v>
@@ -2397,8 +2401,8 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>20190408</v>
+      <c r="B42" s="2" t="n">
+        <v>43563</v>
       </c>
       <c r="C42" t="n">
         <v>113435</v>
@@ -2441,8 +2445,8 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>20190408</v>
+      <c r="B43" s="2" t="n">
+        <v>43563</v>
       </c>
       <c r="C43" t="n">
         <v>114530</v>
@@ -2489,8 +2493,8 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>20190410</v>
+      <c r="B44" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C44" t="n">
         <v>113709</v>
@@ -2541,8 +2545,8 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>20190410</v>
+      <c r="B45" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C45" t="n">
         <v>113709</v>
@@ -2593,8 +2597,8 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>20190410</v>
+      <c r="B46" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C46" t="n">
         <v>113709</v>
@@ -2645,8 +2649,8 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>20190410</v>
+      <c r="B47" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C47" t="n">
         <v>113709</v>
@@ -2697,8 +2701,8 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>20190410</v>
+      <c r="B48" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C48" t="n">
         <v>113709</v>
@@ -2749,8 +2753,8 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>20190410</v>
+      <c r="B49" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C49" t="n">
         <v>113709</v>
@@ -2801,8 +2805,8 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>20190410</v>
+      <c r="B50" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C50" t="n">
         <v>113709</v>
@@ -2853,8 +2857,8 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>20190410</v>
+      <c r="B51" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C51" t="n">
         <v>113709</v>
@@ -2905,8 +2909,8 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>20190410</v>
+      <c r="B52" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C52" t="n">
         <v>113709</v>
@@ -2957,8 +2961,8 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>20190410</v>
+      <c r="B53" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="C53" t="n">
         <v>113709</v>
@@ -3009,8 +3013,8 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>20190411</v>
+      <c r="B54" s="2" t="n">
+        <v>43566</v>
       </c>
       <c r="C54" t="n">
         <v>4740</v>
@@ -3053,8 +3057,8 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>20190502</v>
+      <c r="B55" s="2" t="n">
+        <v>43587</v>
       </c>
       <c r="C55" t="n">
         <v>45752</v>
@@ -3097,8 +3101,8 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>20190502</v>
+      <c r="B56" s="2" t="n">
+        <v>43587</v>
       </c>
       <c r="C56" t="n">
         <v>54349</v>
@@ -3141,8 +3145,8 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>20190502</v>
+      <c r="B57" s="2" t="n">
+        <v>43587</v>
       </c>
       <c r="C57" t="n">
         <v>54349</v>
@@ -3185,8 +3189,8 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>20190508</v>
+      <c r="B58" s="2" t="n">
+        <v>43593</v>
       </c>
       <c r="C58" t="n">
         <v>103430</v>
@@ -3233,8 +3237,8 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>20190510</v>
+      <c r="B59" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C59" t="n">
         <v>95256</v>
@@ -3285,8 +3289,8 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>20190510</v>
+      <c r="B60" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C60" t="n">
         <v>105155</v>
@@ -3329,8 +3333,8 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>20190510</v>
+      <c r="B61" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C61" t="n">
         <v>110405</v>
@@ -3377,8 +3381,8 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>20190510</v>
+      <c r="B62" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C62" t="n">
         <v>112529</v>
@@ -3429,8 +3433,8 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>20190510</v>
+      <c r="B63" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C63" t="n">
         <v>112529</v>
@@ -3481,8 +3485,8 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>20190510</v>
+      <c r="B64" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C64" t="n">
         <v>112530</v>
@@ -3533,8 +3537,8 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>20190510</v>
+      <c r="B65" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C65" t="n">
         <v>112530</v>
@@ -3585,8 +3589,8 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>20190510</v>
+      <c r="B66" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C66" t="n">
         <v>112530</v>
@@ -3637,8 +3641,8 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>20190510</v>
+      <c r="B67" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C67" t="n">
         <v>112530</v>
@@ -3689,8 +3693,8 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>20190510</v>
+      <c r="B68" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C68" t="n">
         <v>112530</v>
@@ -3741,8 +3745,8 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>20190510</v>
+      <c r="B69" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C69" t="n">
         <v>112530</v>
@@ -3793,8 +3797,8 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>20190510</v>
+      <c r="B70" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C70" t="n">
         <v>112530</v>
@@ -3845,8 +3849,8 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>20190510</v>
+      <c r="B71" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C71" t="n">
         <v>112530</v>
@@ -3897,8 +3901,8 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>20190510</v>
+      <c r="B72" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C72" t="n">
         <v>112530</v>
@@ -3949,8 +3953,8 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>20190510</v>
+      <c r="B73" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C73" t="n">
         <v>112530</v>
@@ -4001,8 +4005,8 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>20190510</v>
+      <c r="B74" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C74" t="n">
         <v>112530</v>
@@ -4053,8 +4057,8 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>20190510</v>
+      <c r="B75" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C75" t="n">
         <v>112530</v>
@@ -4105,8 +4109,8 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>20190510</v>
+      <c r="B76" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C76" t="n">
         <v>112530</v>
@@ -4157,8 +4161,8 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>20190510</v>
+      <c r="B77" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C77" t="n">
         <v>112530</v>
@@ -4209,8 +4213,8 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>20190510</v>
+      <c r="B78" s="2" t="n">
+        <v>43595</v>
       </c>
       <c r="C78" t="n">
         <v>112530</v>
@@ -4261,8 +4265,8 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>20190513</v>
+      <c r="B79" s="2" t="n">
+        <v>43598</v>
       </c>
       <c r="C79" t="n">
         <v>2059</v>
@@ -4305,8 +4309,8 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>20190520</v>
+      <c r="B80" s="2" t="n">
+        <v>43605</v>
       </c>
       <c r="C80" t="n">
         <v>121617</v>
@@ -4357,8 +4361,8 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>20190520</v>
+      <c r="B81" s="2" t="n">
+        <v>43605</v>
       </c>
       <c r="C81" t="n">
         <v>121617</v>
@@ -4409,8 +4413,8 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>20190523</v>
+      <c r="B82" s="2" t="n">
+        <v>43608</v>
       </c>
       <c r="C82" t="n">
         <v>115424</v>
@@ -4461,8 +4465,8 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>20190523</v>
+      <c r="B83" s="2" t="n">
+        <v>43608</v>
       </c>
       <c r="C83" t="n">
         <v>125702</v>
@@ -4513,8 +4517,8 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>20190523</v>
+      <c r="B84" s="2" t="n">
+        <v>43608</v>
       </c>
       <c r="C84" t="n">
         <v>133254</v>
@@ -4565,8 +4569,8 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>20190523</v>
+      <c r="B85" s="2" t="n">
+        <v>43608</v>
       </c>
       <c r="C85" t="n">
         <v>133254</v>
@@ -4617,8 +4621,8 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>20190524</v>
+      <c r="B86" s="2" t="n">
+        <v>43609</v>
       </c>
       <c r="C86" t="n">
         <v>130851</v>
@@ -4669,8 +4673,8 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>20190524</v>
+      <c r="B87" s="2" t="n">
+        <v>43609</v>
       </c>
       <c r="C87" t="n">
         <v>175616</v>
@@ -4721,8 +4725,8 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>20190529</v>
+      <c r="B88" s="2" t="n">
+        <v>43614</v>
       </c>
       <c r="C88" t="n">
         <v>150647</v>
@@ -4773,8 +4777,8 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>20190529</v>
+      <c r="B89" s="2" t="n">
+        <v>43614</v>
       </c>
       <c r="C89" t="n">
         <v>180101</v>
@@ -4825,8 +4829,8 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>20190529</v>
+      <c r="B90" s="2" t="n">
+        <v>43614</v>
       </c>
       <c r="C90" t="n">
         <v>180101</v>
@@ -4877,8 +4881,8 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>20190529</v>
+      <c r="B91" s="2" t="n">
+        <v>43614</v>
       </c>
       <c r="C91" t="n">
         <v>180101</v>
@@ -4929,8 +4933,8 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>20190529</v>
+      <c r="B92" s="2" t="n">
+        <v>43614</v>
       </c>
       <c r="C92" t="n">
         <v>180101</v>
@@ -4981,8 +4985,8 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>20190602</v>
+      <c r="B93" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="C93" t="n">
         <v>41107</v>
@@ -5025,8 +5029,8 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>20190602</v>
+      <c r="B94" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="C94" t="n">
         <v>41107</v>
@@ -5069,8 +5073,8 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>20190602</v>
+      <c r="B95" s="2" t="n">
+        <v>43618</v>
       </c>
       <c r="C95" t="n">
         <v>42253</v>
@@ -5113,8 +5117,8 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>20190604</v>
+      <c r="B96" s="2" t="n">
+        <v>43620</v>
       </c>
       <c r="C96" t="n">
         <v>173547</v>
@@ -5161,8 +5165,8 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>20190605</v>
+      <c r="B97" s="2" t="n">
+        <v>43621</v>
       </c>
       <c r="C97" t="n">
         <v>94231</v>
@@ -5205,8 +5209,8 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>20190606</v>
+      <c r="B98" s="2" t="n">
+        <v>43622</v>
       </c>
       <c r="C98" t="n">
         <v>185503</v>
@@ -5257,8 +5261,8 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>20190610</v>
+      <c r="B99" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C99" t="n">
         <v>100009</v>
@@ -5309,8 +5313,8 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>20190610</v>
+      <c r="B100" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C100" t="n">
         <v>100009</v>
@@ -5361,8 +5365,8 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>20190610</v>
+      <c r="B101" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C101" t="n">
         <v>100009</v>
@@ -5413,8 +5417,8 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>20190610</v>
+      <c r="B102" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C102" t="n">
         <v>100009</v>
@@ -5465,8 +5469,8 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>20190610</v>
+      <c r="B103" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C103" t="n">
         <v>100010</v>
@@ -5517,8 +5521,8 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>20190610</v>
+      <c r="B104" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C104" t="n">
         <v>100010</v>
@@ -5569,8 +5573,8 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>20190610</v>
+      <c r="B105" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C105" t="n">
         <v>100010</v>
@@ -5621,8 +5625,8 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>20190610</v>
+      <c r="B106" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C106" t="n">
         <v>100010</v>
@@ -5673,8 +5677,8 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>20190610</v>
+      <c r="B107" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C107" t="n">
         <v>100010</v>
@@ -5725,8 +5729,8 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>20190610</v>
+      <c r="B108" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C108" t="n">
         <v>100010</v>
@@ -5777,8 +5781,8 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>20190610</v>
+      <c r="B109" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C109" t="n">
         <v>100010</v>
@@ -5829,8 +5833,8 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>20190610</v>
+      <c r="B110" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C110" t="n">
         <v>100010</v>
@@ -5881,8 +5885,8 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>20190610</v>
+      <c r="B111" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C111" t="n">
         <v>100010</v>
@@ -5933,8 +5937,8 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>20190610</v>
+      <c r="B112" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C112" t="n">
         <v>100010</v>
@@ -5985,8 +5989,8 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>20190610</v>
+      <c r="B113" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C113" t="n">
         <v>100010</v>
@@ -6037,8 +6041,8 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>20190610</v>
+      <c r="B114" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C114" t="n">
         <v>100011</v>
@@ -6089,8 +6093,8 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>20190610</v>
+      <c r="B115" s="2" t="n">
+        <v>43626</v>
       </c>
       <c r="C115" t="n">
         <v>100011</v>
@@ -6141,8 +6145,8 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>20190611</v>
+      <c r="B116" s="2" t="n">
+        <v>43627</v>
       </c>
       <c r="C116" t="n">
         <v>3456</v>
@@ -6185,8 +6189,8 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>20190612</v>
+      <c r="B117" s="2" t="n">
+        <v>43628</v>
       </c>
       <c r="C117" t="n">
         <v>145226</v>
@@ -6237,8 +6241,8 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>20190620</v>
+      <c r="B118" s="2" t="n">
+        <v>43636</v>
       </c>
       <c r="C118" t="n">
         <v>172638</v>
@@ -6289,8 +6293,8 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>20190621</v>
+      <c r="B119" s="2" t="n">
+        <v>43637</v>
       </c>
       <c r="C119" t="n">
         <v>25111</v>
@@ -6333,8 +6337,8 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>20190625</v>
+      <c r="B120" s="2" t="n">
+        <v>43641</v>
       </c>
       <c r="C120" t="n">
         <v>150417</v>
@@ -6385,8 +6389,8 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>20190627</v>
+      <c r="B121" s="2" t="n">
+        <v>43643</v>
       </c>
       <c r="C121" t="n">
         <v>154408</v>
@@ -6433,8 +6437,8 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>20190628</v>
+      <c r="B122" s="2" t="n">
+        <v>43644</v>
       </c>
       <c r="C122" t="n">
         <v>145345</v>
@@ -6485,8 +6489,8 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>20190628</v>
+      <c r="B123" s="2" t="n">
+        <v>43644</v>
       </c>
       <c r="C123" t="n">
         <v>145345</v>
@@ -6537,8 +6541,8 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>20190702</v>
+      <c r="B124" s="2" t="n">
+        <v>43648</v>
       </c>
       <c r="C124" t="n">
         <v>44550</v>
@@ -6581,8 +6585,8 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>20190702</v>
+      <c r="B125" s="2" t="n">
+        <v>43648</v>
       </c>
       <c r="C125" t="n">
         <v>44801</v>
@@ -6625,8 +6629,8 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>20190702</v>
+      <c r="B126" s="2" t="n">
+        <v>43648</v>
       </c>
       <c r="C126" t="n">
         <v>50046</v>
@@ -6669,8 +6673,8 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>20190703</v>
+      <c r="B127" s="2" t="n">
+        <v>43649</v>
       </c>
       <c r="C127" t="n">
         <v>134123</v>
@@ -6717,8 +6721,8 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>20190708</v>
+      <c r="B128" s="2" t="n">
+        <v>43654</v>
       </c>
       <c r="C128" t="n">
         <v>101616</v>
@@ -6769,8 +6773,8 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>20190708</v>
+      <c r="B129" s="2" t="n">
+        <v>43654</v>
       </c>
       <c r="C129" t="n">
         <v>150849</v>
@@ -6817,8 +6821,8 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>20190708</v>
+      <c r="B130" s="2" t="n">
+        <v>43654</v>
       </c>
       <c r="C130" t="n">
         <v>151747</v>
@@ -6865,8 +6869,8 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>20190708</v>
+      <c r="B131" s="2" t="n">
+        <v>43654</v>
       </c>
       <c r="C131" t="n">
         <v>152134</v>
@@ -6909,8 +6913,8 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>20190710</v>
+      <c r="B132" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C132" t="n">
         <v>114900</v>
@@ -6961,8 +6965,8 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>20190710</v>
+      <c r="B133" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C133" t="n">
         <v>114900</v>
@@ -7013,8 +7017,8 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>20190710</v>
+      <c r="B134" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C134" t="n">
         <v>114900</v>
@@ -7065,8 +7069,8 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>20190710</v>
+      <c r="B135" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C135" t="n">
         <v>114900</v>
@@ -7117,8 +7121,8 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>20190710</v>
+      <c r="B136" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C136" t="n">
         <v>114900</v>
@@ -7169,8 +7173,8 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>20190710</v>
+      <c r="B137" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C137" t="n">
         <v>114900</v>
@@ -7221,8 +7225,8 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>20190710</v>
+      <c r="B138" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C138" t="n">
         <v>114900</v>
@@ -7273,8 +7277,8 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>20190710</v>
+      <c r="B139" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C139" t="n">
         <v>114900</v>
@@ -7325,8 +7329,8 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>20190710</v>
+      <c r="B140" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C140" t="n">
         <v>114900</v>
@@ -7377,8 +7381,8 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>20190710</v>
+      <c r="B141" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C141" t="n">
         <v>114900</v>
@@ -7429,8 +7433,8 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>20190710</v>
+      <c r="B142" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C142" t="n">
         <v>114900</v>
@@ -7481,8 +7485,8 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>20190710</v>
+      <c r="B143" s="2" t="n">
+        <v>43656</v>
       </c>
       <c r="C143" t="n">
         <v>114900</v>
@@ -7533,8 +7537,8 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>20190711</v>
+      <c r="B144" s="2" t="n">
+        <v>43657</v>
       </c>
       <c r="C144" t="n">
         <v>3618</v>
@@ -7577,8 +7581,8 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>20190712</v>
+      <c r="B145" s="2" t="n">
+        <v>43658</v>
       </c>
       <c r="C145" t="n">
         <v>175932</v>
@@ -7629,8 +7633,8 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>20190712</v>
+      <c r="B146" s="2" t="n">
+        <v>43658</v>
       </c>
       <c r="C146" t="n">
         <v>175932</v>
@@ -7681,8 +7685,8 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>20190712</v>
+      <c r="B147" s="2" t="n">
+        <v>43658</v>
       </c>
       <c r="C147" t="n">
         <v>175932</v>
@@ -7733,8 +7737,8 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>20190717</v>
+      <c r="B148" s="2" t="n">
+        <v>43663</v>
       </c>
       <c r="C148" t="n">
         <v>171533</v>
@@ -7785,8 +7789,8 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>20190725</v>
+      <c r="B149" s="2" t="n">
+        <v>43671</v>
       </c>
       <c r="C149" t="n">
         <v>174522</v>
@@ -7833,8 +7837,8 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>20190731</v>
+      <c r="B150" s="2" t="n">
+        <v>43677</v>
       </c>
       <c r="C150" t="n">
         <v>105338</v>
@@ -7885,8 +7889,8 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>20190731</v>
+      <c r="B151" s="2" t="n">
+        <v>43677</v>
       </c>
       <c r="C151" t="n">
         <v>154251</v>
@@ -7937,8 +7941,8 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>20190801</v>
+      <c r="B152" s="2" t="n">
+        <v>43678</v>
       </c>
       <c r="C152" t="n">
         <v>151257</v>
@@ -7985,8 +7989,8 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>20190801</v>
+      <c r="B153" s="2" t="n">
+        <v>43678</v>
       </c>
       <c r="C153" t="n">
         <v>173309</v>
@@ -8037,8 +8041,8 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>20190802</v>
+      <c r="B154" s="2" t="n">
+        <v>43679</v>
       </c>
       <c r="C154" t="n">
         <v>40719</v>
@@ -8081,8 +8085,8 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>20190802</v>
+      <c r="B155" s="2" t="n">
+        <v>43679</v>
       </c>
       <c r="C155" t="n">
         <v>40719</v>
@@ -8125,8 +8129,8 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>20190802</v>
+      <c r="B156" s="2" t="n">
+        <v>43679</v>
       </c>
       <c r="C156" t="n">
         <v>42848</v>
@@ -8169,8 +8173,8 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>20190806</v>
+      <c r="B157" s="2" t="n">
+        <v>43683</v>
       </c>
       <c r="C157" t="n">
         <v>102821</v>
@@ -8217,8 +8221,8 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>20190806</v>
+      <c r="B158" s="2" t="n">
+        <v>43683</v>
       </c>
       <c r="C158" t="n">
         <v>160946</v>
@@ -8269,8 +8273,8 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>20190809</v>
+      <c r="B159" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C159" t="n">
         <v>100644</v>
@@ -8317,8 +8321,8 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>20190809</v>
+      <c r="B160" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C160" t="n">
         <v>110847</v>
@@ -8369,8 +8373,8 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>20190809</v>
+      <c r="B161" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C161" t="n">
         <v>140516</v>
@@ -8421,8 +8425,8 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
-        <v>20190809</v>
+      <c r="B162" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C162" t="n">
         <v>140516</v>
@@ -8473,8 +8477,8 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>20190809</v>
+      <c r="B163" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C163" t="n">
         <v>140516</v>
@@ -8525,8 +8529,8 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>20190809</v>
+      <c r="B164" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C164" t="n">
         <v>140516</v>
@@ -8577,8 +8581,8 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
-        <v>20190809</v>
+      <c r="B165" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C165" t="n">
         <v>140516</v>
@@ -8629,8 +8633,8 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
-        <v>20190809</v>
+      <c r="B166" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C166" t="n">
         <v>140522</v>
@@ -8673,8 +8677,8 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>20190809</v>
+      <c r="B167" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C167" t="n">
         <v>140528</v>
@@ -8717,8 +8721,8 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>20190809</v>
+      <c r="B168" s="2" t="n">
+        <v>43686</v>
       </c>
       <c r="C168" t="n">
         <v>143912</v>
@@ -8761,8 +8765,8 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>20190812</v>
+      <c r="B169" s="2" t="n">
+        <v>43689</v>
       </c>
       <c r="C169" t="n">
         <v>100818</v>
@@ -8809,8 +8813,8 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>20190813</v>
+      <c r="B170" s="2" t="n">
+        <v>43690</v>
       </c>
       <c r="C170" t="n">
         <v>921</v>
@@ -8853,8 +8857,8 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>20190814</v>
+      <c r="B171" s="2" t="n">
+        <v>43691</v>
       </c>
       <c r="C171" t="n">
         <v>172724</v>
@@ -8905,8 +8909,8 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>20190819</v>
+      <c r="B172" s="2" t="n">
+        <v>43696</v>
       </c>
       <c r="C172" t="n">
         <v>154900</v>
@@ -8953,8 +8957,8 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>20190820</v>
+      <c r="B173" s="2" t="n">
+        <v>43697</v>
       </c>
       <c r="C173" t="n">
         <v>155153</v>
@@ -9005,8 +9009,8 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>20190830</v>
+      <c r="B174" s="2" t="n">
+        <v>43707</v>
       </c>
       <c r="C174" t="n">
         <v>102306</v>
@@ -9053,8 +9057,8 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>20190830</v>
+      <c r="B175" s="2" t="n">
+        <v>43707</v>
       </c>
       <c r="C175" t="n">
         <v>120010</v>
@@ -9105,8 +9109,8 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>20190830</v>
+      <c r="B176" s="2" t="n">
+        <v>43707</v>
       </c>
       <c r="C176" t="n">
         <v>120010</v>
@@ -9157,8 +9161,8 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
-        <v>20190902</v>
+      <c r="B177" s="2" t="n">
+        <v>43710</v>
       </c>
       <c r="C177" t="n">
         <v>35741</v>
@@ -9201,8 +9205,8 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>20190902</v>
+      <c r="B178" s="2" t="n">
+        <v>43710</v>
       </c>
       <c r="C178" t="n">
         <v>41501</v>
@@ -9245,8 +9249,8 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
-        <v>20190902</v>
+      <c r="B179" s="2" t="n">
+        <v>43710</v>
       </c>
       <c r="C179" t="n">
         <v>42410</v>
@@ -9289,8 +9293,8 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
-        <v>20190909</v>
+      <c r="B180" s="2" t="n">
+        <v>43717</v>
       </c>
       <c r="C180" t="n">
         <v>101547</v>
@@ -9337,8 +9341,8 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>20190909</v>
+      <c r="B181" s="2" t="n">
+        <v>43717</v>
       </c>
       <c r="C181" t="n">
         <v>114533</v>
@@ -9389,8 +9393,8 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
-        <v>20190910</v>
+      <c r="B182" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C182" t="n">
         <v>100037</v>
@@ -9437,8 +9441,8 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
-        <v>20190910</v>
+      <c r="B183" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C183" t="n">
         <v>110647</v>
@@ -9481,8 +9485,8 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>20190910</v>
+      <c r="B184" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C184" t="n">
         <v>110652</v>
@@ -9525,8 +9529,8 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>20190910</v>
+      <c r="B185" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C185" t="n">
         <v>110743</v>
@@ -9577,8 +9581,8 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>20190910</v>
+      <c r="B186" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C186" t="n">
         <v>110743</v>
@@ -9629,8 +9633,8 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>20190910</v>
+      <c r="B187" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C187" t="n">
         <v>110743</v>
@@ -9681,8 +9685,8 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>20190910</v>
+      <c r="B188" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C188" t="n">
         <v>110743</v>
@@ -9733,8 +9737,8 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>20190910</v>
+      <c r="B189" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C189" t="n">
         <v>110744</v>
@@ -9785,8 +9789,8 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
-        <v>20190910</v>
+      <c r="B190" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C190" t="n">
         <v>110744</v>
@@ -9837,8 +9841,8 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>20190910</v>
+      <c r="B191" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C191" t="n">
         <v>110744</v>
@@ -9889,8 +9893,8 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>20190910</v>
+      <c r="B192" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C192" t="n">
         <v>110744</v>
@@ -9941,8 +9945,8 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
-        <v>20190910</v>
+      <c r="B193" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C193" t="n">
         <v>115951</v>
@@ -9985,8 +9989,8 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
-        <v>20190910</v>
+      <c r="B194" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="C194" t="n">
         <v>152133</v>
@@ -10033,8 +10037,8 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>20190911</v>
+      <c r="B195" s="2" t="n">
+        <v>43719</v>
       </c>
       <c r="C195" t="n">
         <v>10223</v>
@@ -10077,8 +10081,8 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>20190911</v>
+      <c r="B196" s="2" t="n">
+        <v>43719</v>
       </c>
       <c r="C196" t="n">
         <v>102139</v>
@@ -10125,8 +10129,8 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
-        <v>20190911</v>
+      <c r="B197" s="2" t="n">
+        <v>43719</v>
       </c>
       <c r="C197" t="n">
         <v>102807</v>
@@ -10177,8 +10181,8 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
-        <v>20190921</v>
+      <c r="B198" s="2" t="n">
+        <v>43729</v>
       </c>
       <c r="C198" t="n">
         <v>24243</v>
@@ -10221,8 +10225,8 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
-        <v>20190929</v>
+      <c r="B199" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="C199" t="n">
         <v>94231</v>
@@ -10269,8 +10273,8 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
-        <v>20190929</v>
+      <c r="B200" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="C200" t="n">
         <v>120435</v>
@@ -10321,8 +10325,8 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
-        <v>20190929</v>
+      <c r="B201" s="2" t="n">
+        <v>43737</v>
       </c>
       <c r="C201" t="n">
         <v>120435</v>
@@ -10373,8 +10377,8 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>20191002</v>
+      <c r="B202" s="2" t="n">
+        <v>43740</v>
       </c>
       <c r="C202" t="n">
         <v>40139</v>
@@ -10417,8 +10421,8 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
-        <v>20191002</v>
+      <c r="B203" s="2" t="n">
+        <v>43740</v>
       </c>
       <c r="C203" t="n">
         <v>40309</v>
@@ -10461,8 +10465,8 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
-        <v>20191002</v>
+      <c r="B204" s="2" t="n">
+        <v>43740</v>
       </c>
       <c r="C204" t="n">
         <v>44421</v>
@@ -10505,8 +10509,8 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
-        <v>20191010</v>
+      <c r="B205" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C205" t="n">
         <v>91135</v>
@@ -10557,8 +10561,8 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
-        <v>20191010</v>
+      <c r="B206" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C206" t="n">
         <v>115902</v>
@@ -10609,8 +10613,8 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
-        <v>20191010</v>
+      <c r="B207" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C207" t="n">
         <v>143231</v>
@@ -10653,8 +10657,8 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
-        <v>20191010</v>
+      <c r="B208" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C208" t="n">
         <v>154308</v>
@@ -10701,8 +10705,8 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
-        <v>20191010</v>
+      <c r="B209" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C209" t="n">
         <v>234934</v>
@@ -10753,8 +10757,8 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
-        <v>20191010</v>
+      <c r="B210" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C210" t="n">
         <v>234934</v>
@@ -10805,8 +10809,8 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
-        <v>20191010</v>
+      <c r="B211" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C211" t="n">
         <v>234934</v>
@@ -10857,8 +10861,8 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
-        <v>20191010</v>
+      <c r="B212" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C212" t="n">
         <v>234959</v>
@@ -10901,8 +10905,8 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
-        <v>20191010</v>
+      <c r="B213" s="2" t="n">
+        <v>43748</v>
       </c>
       <c r="C213" t="n">
         <v>235013</v>
@@ -10945,8 +10949,8 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
-        <v>20191011</v>
+      <c r="B214" s="2" t="n">
+        <v>43749</v>
       </c>
       <c r="C214" t="n">
         <v>4719</v>
@@ -10989,8 +10993,8 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
-        <v>20191012</v>
+      <c r="B215" s="2" t="n">
+        <v>43750</v>
       </c>
       <c r="C215" t="n">
         <v>100856</v>
@@ -11037,8 +11041,8 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
-        <v>20191018</v>
+      <c r="B216" s="2" t="n">
+        <v>43756</v>
       </c>
       <c r="C216" t="n">
         <v>121851</v>
@@ -11085,8 +11089,8 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
-        <v>20191018</v>
+      <c r="B217" s="2" t="n">
+        <v>43756</v>
       </c>
       <c r="C217" t="n">
         <v>122900</v>
@@ -11137,8 +11141,8 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
-        <v>20191018</v>
+      <c r="B218" s="2" t="n">
+        <v>43756</v>
       </c>
       <c r="C218" t="n">
         <v>182905</v>
@@ -11189,8 +11193,8 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
-        <v>20191018</v>
+      <c r="B219" s="2" t="n">
+        <v>43756</v>
       </c>
       <c r="C219" t="n">
         <v>182905</v>
@@ -11241,8 +11245,8 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
-        <v>20191024</v>
+      <c r="B220" s="2" t="n">
+        <v>43762</v>
       </c>
       <c r="C220" t="n">
         <v>113913</v>
@@ -11293,8 +11297,8 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
-        <v>20191030</v>
+      <c r="B221" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="C221" t="n">
         <v>141336</v>
@@ -11345,8 +11349,8 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
-        <v>20191030</v>
+      <c r="B222" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="C222" t="n">
         <v>143400</v>
@@ -11397,8 +11401,8 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
-        <v>20191030</v>
+      <c r="B223" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="C223" t="n">
         <v>143400</v>
@@ -11449,8 +11453,8 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
-        <v>20191030</v>
+      <c r="B224" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="C224" t="n">
         <v>183729</v>
@@ -11501,8 +11505,8 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
-        <v>20191030</v>
+      <c r="B225" s="2" t="n">
+        <v>43768</v>
       </c>
       <c r="C225" t="n">
         <v>192000</v>
@@ -11553,8 +11557,8 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
-        <v>20191101</v>
+      <c r="B226" s="2" t="n">
+        <v>43770</v>
       </c>
       <c r="C226" t="n">
         <v>114745</v>
@@ -11605,8 +11609,8 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
-        <v>20191102</v>
+      <c r="B227" s="2" t="n">
+        <v>43771</v>
       </c>
       <c r="C227" t="n">
         <v>41546</v>
@@ -11649,8 +11653,8 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
-        <v>20191102</v>
+      <c r="B228" s="2" t="n">
+        <v>43771</v>
       </c>
       <c r="C228" t="n">
         <v>41724</v>
@@ -11693,8 +11697,8 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
-        <v>20191102</v>
+      <c r="B229" s="2" t="n">
+        <v>43771</v>
       </c>
       <c r="C229" t="n">
         <v>44649</v>
@@ -11737,8 +11741,8 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
-        <v>20191103</v>
+      <c r="B230" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="C230" t="n">
         <v>134706</v>
@@ -11781,8 +11785,8 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
-        <v>20191106</v>
+      <c r="B231" s="2" t="n">
+        <v>43775</v>
       </c>
       <c r="C231" t="n">
         <v>165720</v>
@@ -11833,8 +11837,8 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
-        <v>20191107</v>
+      <c r="B232" s="2" t="n">
+        <v>43776</v>
       </c>
       <c r="C232" t="n">
         <v>152904</v>
@@ -11881,8 +11885,8 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
-        <v>20191108</v>
+      <c r="B233" s="2" t="n">
+        <v>43777</v>
       </c>
       <c r="C233" t="n">
         <v>111231</v>
@@ -11933,8 +11937,8 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
-        <v>20191108</v>
+      <c r="B234" s="2" t="n">
+        <v>43777</v>
       </c>
       <c r="C234" t="n">
         <v>121430</v>
@@ -11985,8 +11989,8 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
-        <v>20191108</v>
+      <c r="B235" s="2" t="n">
+        <v>43777</v>
       </c>
       <c r="C235" t="n">
         <v>121512</v>
@@ -12029,8 +12033,8 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
-        <v>20191108</v>
+      <c r="B236" s="2" t="n">
+        <v>43777</v>
       </c>
       <c r="C236" t="n">
         <v>121519</v>
@@ -12073,8 +12077,8 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
-        <v>20191111</v>
+      <c r="B237" s="2" t="n">
+        <v>43780</v>
       </c>
       <c r="C237" t="n">
         <v>113432</v>
@@ -12117,8 +12121,8 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
-        <v>20191111</v>
+      <c r="B238" s="2" t="n">
+        <v>43780</v>
       </c>
       <c r="C238" t="n">
         <v>140221</v>
@@ -12165,8 +12169,8 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
-        <v>20191111</v>
+      <c r="B239" s="2" t="n">
+        <v>43780</v>
       </c>
       <c r="C239" t="n">
         <v>165049</v>
@@ -12217,8 +12221,8 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
-        <v>20191112</v>
+      <c r="B240" s="2" t="n">
+        <v>43781</v>
       </c>
       <c r="C240" t="n">
         <v>3003</v>
@@ -12261,8 +12265,8 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
-        <v>20191118</v>
+      <c r="B241" s="2" t="n">
+        <v>43787</v>
       </c>
       <c r="C241" t="n">
         <v>135109</v>
@@ -12313,8 +12317,8 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
-        <v>20191118</v>
+      <c r="B242" s="2" t="n">
+        <v>43787</v>
       </c>
       <c r="C242" t="n">
         <v>144339</v>
@@ -12365,8 +12369,8 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
-        <v>20191120</v>
+      <c r="B243" s="2" t="n">
+        <v>43789</v>
       </c>
       <c r="C243" t="n">
         <v>121905</v>
@@ -12417,8 +12421,8 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
-        <v>20191202</v>
+      <c r="B244" s="2" t="n">
+        <v>43801</v>
       </c>
       <c r="C244" t="n">
         <v>40029</v>
@@ -12461,8 +12465,8 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
-        <v>20191202</v>
+      <c r="B245" s="2" t="n">
+        <v>43801</v>
       </c>
       <c r="C245" t="n">
         <v>40903</v>
@@ -12505,8 +12509,8 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
-        <v>20191202</v>
+      <c r="B246" s="2" t="n">
+        <v>43801</v>
       </c>
       <c r="C246" t="n">
         <v>43317</v>
@@ -12549,8 +12553,8 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
-        <v>20191202</v>
+      <c r="B247" s="2" t="n">
+        <v>43801</v>
       </c>
       <c r="C247" t="n">
         <v>162839</v>
@@ -12601,8 +12605,8 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
-        <v>20191202</v>
+      <c r="B248" s="2" t="n">
+        <v>43801</v>
       </c>
       <c r="C248" t="n">
         <v>163505</v>
@@ -12653,8 +12657,8 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
-        <v>20191203</v>
+      <c r="B249" s="2" t="n">
+        <v>43802</v>
       </c>
       <c r="C249" t="n">
         <v>162802</v>
@@ -12705,8 +12709,8 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
-        <v>20191210</v>
+      <c r="B250" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C250" t="n">
         <v>121147</v>
@@ -12757,8 +12761,8 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
-        <v>20191210</v>
+      <c r="B251" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C251" t="n">
         <v>150132</v>
@@ -12805,8 +12809,8 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
-        <v>20191210</v>
+      <c r="B252" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C252" t="n">
         <v>150519</v>
@@ -12849,8 +12853,8 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
-        <v>20191210</v>
+      <c r="B253" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C253" t="n">
         <v>152535</v>
@@ -12893,8 +12897,8 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
-        <v>20191210</v>
+      <c r="B254" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C254" t="n">
         <v>152541</v>
@@ -12937,8 +12941,8 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
-        <v>20191210</v>
+      <c r="B255" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C255" t="n">
         <v>152627</v>
@@ -12989,8 +12993,8 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
-        <v>20191210</v>
+      <c r="B256" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C256" t="n">
         <v>152627</v>
@@ -13041,8 +13045,8 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
-        <v>20191210</v>
+      <c r="B257" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C257" t="n">
         <v>152627</v>
@@ -13093,8 +13097,8 @@
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
-        <v>20191210</v>
+      <c r="B258" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C258" t="n">
         <v>152627</v>
@@ -13145,8 +13149,8 @@
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
-        <v>20191210</v>
+      <c r="B259" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C259" t="n">
         <v>152627</v>
@@ -13197,8 +13201,8 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
-        <v>20191210</v>
+      <c r="B260" s="2" t="n">
+        <v>43809</v>
       </c>
       <c r="C260" t="n">
         <v>152627</v>
@@ -13249,8 +13253,8 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
-        <v>20191211</v>
+      <c r="B261" s="2" t="n">
+        <v>43810</v>
       </c>
       <c r="C261" t="n">
         <v>1251</v>
@@ -13293,8 +13297,8 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
-        <v>20191212</v>
+      <c r="B262" s="2" t="n">
+        <v>43811</v>
       </c>
       <c r="C262" t="n">
         <v>151005</v>
@@ -13345,8 +13349,8 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
-        <v>20191221</v>
+      <c r="B263" s="2" t="n">
+        <v>43820</v>
       </c>
       <c r="C263" t="n">
         <v>30144</v>
@@ -13389,8 +13393,8 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
-        <v>20191227</v>
+      <c r="B264" s="2" t="n">
+        <v>43826</v>
       </c>
       <c r="C264" t="n">
         <v>160828</v>
@@ -13441,8 +13445,8 @@
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
-        <v>20191227</v>
+      <c r="B265" s="2" t="n">
+        <v>43826</v>
       </c>
       <c r="C265" t="n">
         <v>164823</v>
@@ -13493,8 +13497,8 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
-        <v>20191227</v>
+      <c r="B266" s="2" t="n">
+        <v>43826</v>
       </c>
       <c r="C266" t="n">
         <v>164823</v>
@@ -13545,8 +13549,8 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
-        <v>20200102</v>
+      <c r="B267" s="2" t="n">
+        <v>43832</v>
       </c>
       <c r="C267" t="n">
         <v>35124</v>
@@ -13589,8 +13593,8 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
-        <v>20200102</v>
+      <c r="B268" s="2" t="n">
+        <v>43832</v>
       </c>
       <c r="C268" t="n">
         <v>35414</v>
@@ -13633,8 +13637,8 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
-        <v>20200102</v>
+      <c r="B269" s="2" t="n">
+        <v>43832</v>
       </c>
       <c r="C269" t="n">
         <v>42413</v>
@@ -13677,8 +13681,8 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
-        <v>20200106</v>
+      <c r="B270" s="2" t="n">
+        <v>43836</v>
       </c>
       <c r="C270" t="n">
         <v>154823</v>
@@ -13725,8 +13729,8 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
-        <v>20200110</v>
+      <c r="B271" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C271" t="n">
         <v>130643</v>
@@ -13777,8 +13781,8 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
-        <v>20200110</v>
+      <c r="B272" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C272" t="n">
         <v>131424</v>
@@ -13829,8 +13833,8 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
-        <v>20200110</v>
+      <c r="B273" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C273" t="n">
         <v>162629</v>
@@ -13873,8 +13877,8 @@
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
-        <v>20200110</v>
+      <c r="B274" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C274" t="n">
         <v>162636</v>
@@ -13917,8 +13921,8 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
-        <v>20200110</v>
+      <c r="B275" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C275" t="n">
         <v>162724</v>
@@ -13969,8 +13973,8 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
-        <v>20200110</v>
+      <c r="B276" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C276" t="n">
         <v>162725</v>
@@ -14021,8 +14025,8 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
-        <v>20200110</v>
+      <c r="B277" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C277" t="n">
         <v>162725</v>
@@ -14073,8 +14077,8 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
-        <v>20200110</v>
+      <c r="B278" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C278" t="n">
         <v>162725</v>
@@ -14125,8 +14129,8 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
-        <v>20200110</v>
+      <c r="B279" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C279" t="n">
         <v>162725</v>
@@ -14177,8 +14181,8 @@
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
-        <v>20200110</v>
+      <c r="B280" s="2" t="n">
+        <v>43840</v>
       </c>
       <c r="C280" t="n">
         <v>162725</v>
@@ -14229,8 +14233,8 @@
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
-        <v>20200113</v>
+      <c r="B281" s="2" t="n">
+        <v>43843</v>
       </c>
       <c r="C281" t="n">
         <v>4023</v>
@@ -14273,8 +14277,8 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
-        <v>20200113</v>
+      <c r="B282" s="2" t="n">
+        <v>43843</v>
       </c>
       <c r="C282" t="n">
         <v>94328</v>
@@ -14321,8 +14325,8 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
-        <v>20200113</v>
+      <c r="B283" s="2" t="n">
+        <v>43843</v>
       </c>
       <c r="C283" t="n">
         <v>94831</v>
@@ -14365,8 +14369,8 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
-        <v>20200119</v>
+      <c r="B284" s="2" t="n">
+        <v>43849</v>
       </c>
       <c r="C284" t="n">
         <v>170944</v>
@@ -14417,8 +14421,8 @@
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
-        <v>20200119</v>
+      <c r="B285" s="2" t="n">
+        <v>43849</v>
       </c>
       <c r="C285" t="n">
         <v>171456</v>
@@ -14469,8 +14473,8 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
-        <v>20200119</v>
+      <c r="B286" s="2" t="n">
+        <v>43849</v>
       </c>
       <c r="C286" t="n">
         <v>171456</v>
@@ -14521,8 +14525,8 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
-        <v>20200202</v>
+      <c r="B287" s="2" t="n">
+        <v>43863</v>
       </c>
       <c r="C287" t="n">
         <v>35507</v>
@@ -14565,8 +14569,8 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
-        <v>20200202</v>
+      <c r="B288" s="2" t="n">
+        <v>43863</v>
       </c>
       <c r="C288" t="n">
         <v>35508</v>
@@ -14609,8 +14613,8 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
-        <v>20200202</v>
+      <c r="B289" s="2" t="n">
+        <v>43863</v>
       </c>
       <c r="C289" t="n">
         <v>40915</v>
@@ -14653,8 +14657,8 @@
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
-        <v>20200210</v>
+      <c r="B290" s="2" t="n">
+        <v>43871</v>
       </c>
       <c r="C290" t="n">
         <v>144116</v>
@@ -14705,8 +14709,8 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
-        <v>20200210</v>
+      <c r="B291" s="2" t="n">
+        <v>43871</v>
       </c>
       <c r="C291" t="n">
         <v>154456</v>
@@ -14757,8 +14761,8 @@
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
-        <v>20200210</v>
+      <c r="B292" s="2" t="n">
+        <v>43871</v>
       </c>
       <c r="C292" t="n">
         <v>154522</v>
@@ -14801,8 +14805,8 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
-        <v>20200210</v>
+      <c r="B293" s="2" t="n">
+        <v>43871</v>
       </c>
       <c r="C293" t="n">
         <v>154528</v>
@@ -14845,8 +14849,8 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
-        <v>20200211</v>
+      <c r="B294" s="2" t="n">
+        <v>43872</v>
       </c>
       <c r="C294" t="n">
         <v>4812</v>
@@ -14889,8 +14893,8 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
-        <v>20200218</v>
+      <c r="B295" s="2" t="n">
+        <v>43879</v>
       </c>
       <c r="C295" t="n">
         <v>102926</v>
@@ -14933,8 +14937,8 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
-        <v>20200218</v>
+      <c r="B296" s="2" t="n">
+        <v>43879</v>
       </c>
       <c r="C296" t="n">
         <v>110202</v>
@@ -14981,8 +14985,8 @@
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
-        <v>20200227</v>
+      <c r="B297" s="2" t="n">
+        <v>43888</v>
       </c>
       <c r="C297" t="n">
         <v>102438</v>
@@ -15033,8 +15037,8 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
-        <v>20200228</v>
+      <c r="B298" s="2" t="n">
+        <v>43889</v>
       </c>
       <c r="C298" t="n">
         <v>141431</v>
@@ -15085,8 +15089,8 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
-        <v>20200228</v>
+      <c r="B299" s="2" t="n">
+        <v>43889</v>
       </c>
       <c r="C299" t="n">
         <v>142442</v>
@@ -15137,8 +15141,8 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
-        <v>20200228</v>
+      <c r="B300" s="2" t="n">
+        <v>43889</v>
       </c>
       <c r="C300" t="n">
         <v>160933</v>
@@ -15189,8 +15193,8 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
-        <v>20200228</v>
+      <c r="B301" s="2" t="n">
+        <v>43889</v>
       </c>
       <c r="C301" t="n">
         <v>162339</v>
@@ -15241,8 +15245,8 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
-        <v>20200302</v>
+      <c r="B302" s="2" t="n">
+        <v>43892</v>
       </c>
       <c r="C302" t="n">
         <v>40239</v>
@@ -15285,8 +15289,8 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
-        <v>20200302</v>
+      <c r="B303" s="2" t="n">
+        <v>43892</v>
       </c>
       <c r="C303" t="n">
         <v>43028</v>
@@ -15329,8 +15333,8 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
-        <v>20200303</v>
+      <c r="B304" s="2" t="n">
+        <v>43893</v>
       </c>
       <c r="C304" t="n">
         <v>162131</v>
